--- a/2. Hardware PCB/REV_3.0/BOM/BOM.xlsx
+++ b/2. Hardware PCB/REV_3.0/BOM/BOM.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM REV3.1" sheetId="10" r:id="rId1"/>
-    <sheet name="BOM REV3.0" sheetId="9" r:id="rId2"/>
-    <sheet name="BOM (3inv)" sheetId="7" r:id="rId3"/>
-    <sheet name="BOM" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
-    <sheet name="estimativa 20 inversores" sheetId="3" r:id="rId7"/>
-    <sheet name="racio_custo" sheetId="4" r:id="rId8"/>
-    <sheet name="lojas" sheetId="5" r:id="rId9"/>
+    <sheet name="BOM REV3.2" sheetId="11" r:id="rId1"/>
+    <sheet name="BOM REV3.1" sheetId="10" r:id="rId2"/>
+    <sheet name="BOM REV3.0" sheetId="9" r:id="rId3"/>
+    <sheet name="BOM (3inv)" sheetId="7" r:id="rId4"/>
+    <sheet name="BOM" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="estimativa 20 inversores" sheetId="3" r:id="rId8"/>
+    <sheet name="racio_custo" sheetId="4" r:id="rId9"/>
+    <sheet name="lojas" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="588">
   <si>
     <t>Comment</t>
   </si>
@@ -1642,6 +1643,159 @@
   </si>
   <si>
     <t>controlo</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C18, C23, C26, C29</t>
+  </si>
+  <si>
+    <t>C 10uF 2917 TANT 50V</t>
+  </si>
+  <si>
+    <t>C 1nF 0805 MLCC 50V X7R</t>
+  </si>
+  <si>
+    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT WCAP-CSGP 1000pF 0805 10% 50V MLCC</t>
+  </si>
+  <si>
+    <t>C1uF 0805 MLCC 50V X5R</t>
+  </si>
+  <si>
+    <t>C 470uF EleCap TH 450V</t>
+  </si>
+  <si>
+    <t>C 470nF PPCap TH 630V</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8watt 3Kohms 1% 100ppm</t>
+  </si>
+  <si>
+    <t>R 3k6 1/8W 0805 1%</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8watt 3.6Kohms 1%</t>
+  </si>
+  <si>
+    <t>X COOLER H412R</t>
+  </si>
+  <si>
+    <t>Cooler CPU Cooler Master Hyper H412R</t>
+  </si>
+  <si>
+    <t>X?</t>
+  </si>
+  <si>
+    <t>9751343</t>
+  </si>
+  <si>
+    <t>710-885012207086</t>
+  </si>
+  <si>
+    <t>PCDIGA VPN</t>
+  </si>
+  <si>
+    <t>0,24</t>
+  </si>
+  <si>
+    <t>0,162</t>
+  </si>
+  <si>
+    <t>1,58</t>
+  </si>
+  <si>
+    <t>0,08</t>
+  </si>
+  <si>
+    <t>0,099</t>
+  </si>
+  <si>
+    <t>0,153</t>
+  </si>
+  <si>
+    <t>3,47</t>
+  </si>
+  <si>
+    <t>6,28</t>
+  </si>
+  <si>
+    <t>2,18</t>
+  </si>
+  <si>
+    <t>0,09</t>
+  </si>
+  <si>
+    <t>0,621</t>
+  </si>
+  <si>
+    <t>0,271</t>
+  </si>
+  <si>
+    <t>16,25</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>5,55</t>
+  </si>
+  <si>
+    <t>22,90</t>
+  </si>
+  <si>
+    <t>R6, R7, R8, R9, R11</t>
+  </si>
+  <si>
+    <t>R5, R10</t>
+  </si>
+  <si>
+    <t>0,31</t>
+  </si>
+  <si>
+    <t>2,43</t>
+  </si>
+  <si>
+    <t>5,31</t>
+  </si>
+  <si>
+    <t>8,26</t>
+  </si>
+  <si>
+    <t>0,891</t>
+  </si>
+  <si>
+    <t>0,756</t>
+  </si>
+  <si>
+    <t>1,82</t>
+  </si>
+  <si>
+    <t>0,387</t>
+  </si>
+  <si>
+    <t>1,59</t>
+  </si>
+  <si>
+    <t>0,549</t>
+  </si>
+  <si>
+    <t>0,405</t>
+  </si>
+  <si>
+    <t>4,62</t>
+  </si>
+  <si>
+    <t>0,296</t>
+  </si>
+  <si>
+    <t>14,628</t>
+  </si>
+  <si>
+    <t>0,324</t>
+  </si>
+  <si>
+    <t>0,135</t>
+  </si>
+  <si>
+    <t>0,126</t>
   </si>
 </sst>
 </file>
@@ -1901,7 +2055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2034,9 +2188,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2055,12 +2206,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="61">
     <dxf>
       <font>
         <b val="0"/>
@@ -2077,7 +2256,62 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2090,6 +2324,103 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2138,16 +2469,20 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2196,7 +2531,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2207,7 +2542,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2256,7 +2593,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2267,7 +2604,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2316,7 +2655,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2327,7 +2666,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2376,6 +2717,38 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2406,9 +2779,384 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2468,7 +3216,8 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2478,93 +3227,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2616,7 +3279,67 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2626,11 +3349,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2682,7 +3401,8 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2692,11 +3412,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2748,7 +3464,8 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2758,11 +3475,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2814,6 +3527,36 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2829,6 +3572,286 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2871,13 +3894,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2890,6 +3906,64 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2906,24 +3980,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L65" totalsRowCount="1" headerRowDxfId="14" dataDxfId="15" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:L65"/>
-  <sortState ref="A2:L64">
-    <sortCondition descending="1" ref="A1:A64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:M64" totalsRowCount="1" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+  <autoFilter ref="A1:M63"/>
+  <sortState ref="A2:M63">
+    <sortCondition ref="A1:A63"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Comment" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" name="Description" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="3" name="Designator" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="4" name="Footprint" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="5" name="LibRef" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="7" name="Board" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="8" name="RS VPN" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="9" name="Farnell VPN" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="10" name="Mouser VPN" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="3">
+      <calculatedColumnFormula>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Table22[price total])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L65" totalsRowCount="1" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+  <autoFilter ref="A1:L64">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="controlo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A4:L64">
+    <sortCondition ref="A1:A64"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="Comment" dataDxfId="25" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="Description" dataDxfId="24" totalsRowDxfId="10"/>
-    <tableColumn id="3" name="Designator" dataDxfId="23" totalsRowDxfId="9"/>
-    <tableColumn id="4" name="Footprint" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="5" name="LibRef" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="6" name="Quantity" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="7" name="Board" dataDxfId="19" totalsRowDxfId="5"/>
-    <tableColumn id="8" name="RS VPN" dataDxfId="18" totalsRowDxfId="4"/>
-    <tableColumn id="9" name="Farnell VPN" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="10" name="Mouser VPN" dataDxfId="16" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="price" dataDxfId="13" totalsRowDxfId="1"/>
-    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
+    <tableColumn id="1" name="Comment" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="2" name="Description" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="3" name="Designator" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="4" name="Footprint" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="5" name="LibRef" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="7" name="Board" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="8" name="RS VPN" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="9" name="Farnell VPN" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="10" name="Mouser VPN" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="11" name="price" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[price total])</totalsRowFormula>
     </tableColumn>
@@ -3195,11 +4303,2671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:M64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="5" customWidth="1"/>
+    <col min="6" max="7" width="11" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="13" width="9.140625" style="74"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="75" t="s">
+        <v>557</v>
+      </c>
+      <c r="M2" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="58">
+        <v>3</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="58"/>
+      <c r="L3" s="75" t="s">
+        <v>557</v>
+      </c>
+      <c r="M3" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.29700000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7">
+        <v>7</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H4" s="58"/>
+      <c r="I4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>554</v>
+      </c>
+      <c r="M4" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>1.1340000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="58">
+        <v>9</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="58"/>
+      <c r="L5" s="75" t="s">
+        <v>554</v>
+      </c>
+      <c r="M5" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>1.458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="58">
+        <v>12</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="58"/>
+      <c r="J6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="58"/>
+      <c r="L6" s="75" t="s">
+        <v>571</v>
+      </c>
+      <c r="M6" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>3.7199999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7">
+        <v>9</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="75" t="s">
+        <v>555</v>
+      </c>
+      <c r="M7" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="75" t="s">
+        <v>556</v>
+      </c>
+      <c r="M8" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>498</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="58">
+        <v>3</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="L9" s="75" t="s">
+        <v>558</v>
+      </c>
+      <c r="M9" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.45899999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="75" t="s">
+        <v>561</v>
+      </c>
+      <c r="M10" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="75" t="s">
+        <v>560</v>
+      </c>
+      <c r="M11" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="75" t="s">
+        <v>558</v>
+      </c>
+      <c r="M12" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.45899999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
+        <v>527</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>528</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="58">
+        <v>3</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="58"/>
+      <c r="L13" s="75" t="s">
+        <v>582</v>
+      </c>
+      <c r="M13" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="75" t="s">
+        <v>567</v>
+      </c>
+      <c r="M14" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="75" t="s">
+        <v>559</v>
+      </c>
+      <c r="M15" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="75" t="s">
+        <v>566</v>
+      </c>
+      <c r="M16" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="76" t="s">
+        <v>412</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="58">
+        <v>3</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="58"/>
+      <c r="L17" s="75" t="s">
+        <v>566</v>
+      </c>
+      <c r="M17" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="76" t="s">
+        <v>482</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>484</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>485</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>486</v>
+      </c>
+      <c r="F18" s="58">
+        <v>1</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="58"/>
+      <c r="J18" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="K18" s="58"/>
+      <c r="L18" s="75" t="s">
+        <v>573</v>
+      </c>
+      <c r="M18" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
+        <v>476</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>477</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>478</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>479</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>480</v>
+      </c>
+      <c r="F19" s="58">
+        <v>1</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="58"/>
+      <c r="J19" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="K19" s="58"/>
+      <c r="L19" s="75" t="s">
+        <v>574</v>
+      </c>
+      <c r="M19" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="76" t="s">
+        <v>492</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>493</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>486</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>486</v>
+      </c>
+      <c r="F20" s="58">
+        <v>1</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="58"/>
+      <c r="J20" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="K20" s="58"/>
+      <c r="L20" s="75" t="s">
+        <v>572</v>
+      </c>
+      <c r="M20" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="76" t="s">
+        <v>488</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>489</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>490</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>485</v>
+      </c>
+      <c r="E21" s="76" t="s">
+        <v>486</v>
+      </c>
+      <c r="F21" s="58">
+        <v>2</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="58"/>
+      <c r="J21" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="K21" s="58"/>
+      <c r="L21" s="75" t="s">
+        <v>573</v>
+      </c>
+      <c r="M21" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="7">
+        <v>3</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M22" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="76" t="s">
+        <v>471</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>472</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>473</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>474</v>
+      </c>
+      <c r="F23" s="58">
+        <v>3</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="58"/>
+      <c r="J23" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="K23" s="58"/>
+      <c r="L23" s="75" t="s">
+        <v>575</v>
+      </c>
+      <c r="M23" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>2.673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="76" t="s">
+        <v>465</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>466</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>467</v>
+      </c>
+      <c r="D24" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="E24" s="76" t="s">
+        <v>469</v>
+      </c>
+      <c r="F24" s="58">
+        <v>1</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="58"/>
+      <c r="J24" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="K24" s="58"/>
+      <c r="L24" s="75" t="s">
+        <v>576</v>
+      </c>
+      <c r="M24" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H25" s="58"/>
+      <c r="I25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="75" t="s">
+        <v>565</v>
+      </c>
+      <c r="M25" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="76" t="s">
+        <v>459</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>460</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>461</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>462</v>
+      </c>
+      <c r="E26" s="76" t="s">
+        <v>463</v>
+      </c>
+      <c r="F26" s="58">
+        <v>2</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="58"/>
+      <c r="J26" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K26" s="58"/>
+      <c r="L26" s="75" t="s">
+        <v>577</v>
+      </c>
+      <c r="M26" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="76" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="58">
+        <v>4</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="58"/>
+      <c r="J27" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" s="58"/>
+      <c r="L27" s="75" t="s">
+        <v>578</v>
+      </c>
+      <c r="M27" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="76" t="s">
+        <v>525</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="D28" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="58">
+        <v>3</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" s="58"/>
+      <c r="L28" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="M28" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.8879999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="76" t="s">
+        <v>452</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>453</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>455</v>
+      </c>
+      <c r="E29" s="76" t="s">
+        <v>455</v>
+      </c>
+      <c r="F29" s="58">
+        <v>2</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="58"/>
+      <c r="J29" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="K29" s="58"/>
+      <c r="L29" s="75" t="s">
+        <v>579</v>
+      </c>
+      <c r="M29" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
+        <v>529</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>531</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="F30" s="58">
+        <v>1</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="58"/>
+      <c r="L30" s="75" t="s">
+        <v>584</v>
+      </c>
+      <c r="M30" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>14.628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>447</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>448</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>449</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>450</v>
+      </c>
+      <c r="F31" s="58">
+        <v>4</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="58"/>
+      <c r="J31" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="K31" s="58"/>
+      <c r="L31" s="75" t="s">
+        <v>580</v>
+      </c>
+      <c r="M31" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>2.1960000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="7">
+        <v>2</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H32" s="58"/>
+      <c r="I32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="75">
+        <v>0</v>
+      </c>
+      <c r="M32" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7">
+        <v>5</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H33" s="76"/>
+      <c r="I33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="75" t="s">
+        <v>553</v>
+      </c>
+      <c r="M33" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="76" t="s">
+        <v>443</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>444</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>445</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="58">
+        <v>4</v>
+      </c>
+      <c r="G34" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="I34" s="58"/>
+      <c r="J34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="58"/>
+      <c r="L34" s="75" t="s">
+        <v>553</v>
+      </c>
+      <c r="M34" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="76" t="s">
+        <v>443</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>503</v>
+      </c>
+      <c r="D35" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="58">
+        <v>3</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="58"/>
+      <c r="L35" s="75" t="s">
+        <v>553</v>
+      </c>
+      <c r="M35" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>440</v>
+      </c>
+      <c r="E36" s="76" t="s">
+        <v>441</v>
+      </c>
+      <c r="F36" s="58">
+        <v>1</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="58"/>
+      <c r="J36" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="K36" s="58"/>
+      <c r="L36" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="M36" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="7">
+        <v>8</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H37" s="58"/>
+      <c r="I37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="75" t="s">
+        <v>563</v>
+      </c>
+      <c r="M37" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>4.968</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>362</v>
+      </c>
+      <c r="E38" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="58">
+        <v>8</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="58"/>
+      <c r="J38" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="K38" s="58"/>
+      <c r="L38" s="75" t="s">
+        <v>563</v>
+      </c>
+      <c r="M38" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>4.968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="D39" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="E39" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="F39" s="58">
+        <v>4</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="58"/>
+      <c r="J39" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="K39" s="58"/>
+      <c r="L39" s="75" t="s">
+        <v>563</v>
+      </c>
+      <c r="M39" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>2.484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>502</v>
+      </c>
+      <c r="D40" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="E40" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="F40" s="58">
+        <v>6</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="K40" s="58"/>
+      <c r="L40" s="75" t="s">
+        <v>563</v>
+      </c>
+      <c r="M40" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>3.726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H41" s="58"/>
+      <c r="I41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M41" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="76" t="s">
+        <v>399</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="76" t="s">
+        <v>569</v>
+      </c>
+      <c r="D42" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="58">
+        <v>5</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="58"/>
+      <c r="J42" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K42" s="58"/>
+      <c r="L42" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M42" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A43" s="76" t="s">
+        <v>399</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="76" t="s">
+        <v>504</v>
+      </c>
+      <c r="D43" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="58">
+        <v>17</v>
+      </c>
+      <c r="G43" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K43" s="58"/>
+      <c r="L43" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M43" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="7">
+        <v>3</v>
+      </c>
+      <c r="G44" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H44" s="58"/>
+      <c r="I44" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="75" t="s">
+        <v>564</v>
+      </c>
+      <c r="M44" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.81300000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="C45" s="76" t="s">
+        <v>570</v>
+      </c>
+      <c r="D45" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="58">
+        <v>2</v>
+      </c>
+      <c r="G45" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="58"/>
+      <c r="J45" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="K45" s="58"/>
+      <c r="L45" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M45" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="7">
+        <v>9</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H46" s="58"/>
+      <c r="I46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M46" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.80999999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="54" x14ac:dyDescent="0.25">
+      <c r="A47" s="76" t="s">
+        <v>521</v>
+      </c>
+      <c r="B47" s="76" t="s">
+        <v>522</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>523</v>
+      </c>
+      <c r="D47" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="58">
+        <v>30</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="K47" s="58"/>
+      <c r="L47" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="M47" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>3.7800000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="77" t="s">
+        <v>418</v>
+      </c>
+      <c r="B48" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="60">
+        <v>1</v>
+      </c>
+      <c r="G48" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="60"/>
+      <c r="J48" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="K48" s="60"/>
+      <c r="L48" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M48" s="73">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H49" s="58"/>
+      <c r="I49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M49" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="76" t="s">
+        <v>427</v>
+      </c>
+      <c r="B50" s="76" t="s">
+        <v>428</v>
+      </c>
+      <c r="C50" s="76" t="s">
+        <v>429</v>
+      </c>
+      <c r="D50" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="58">
+        <v>1</v>
+      </c>
+      <c r="G50" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="58"/>
+      <c r="J50" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="K50" s="58"/>
+      <c r="L50" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M50" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H51" s="58"/>
+      <c r="I51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M51" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="76" t="s">
+        <v>423</v>
+      </c>
+      <c r="B52" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="C52" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="58">
+        <v>1</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="58"/>
+      <c r="J52" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="K52" s="58"/>
+      <c r="L52" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M52" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="7">
+        <v>12</v>
+      </c>
+      <c r="G53" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H53" s="58"/>
+      <c r="I53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M53" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="76" t="s">
+        <v>513</v>
+      </c>
+      <c r="B54" s="76" t="s">
+        <v>514</v>
+      </c>
+      <c r="C54" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="D54" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="58">
+        <v>3</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="K54" s="58"/>
+      <c r="L54" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="M54" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="7">
+        <v>2</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H55" s="58"/>
+      <c r="I55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M55" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="76" t="s">
+        <v>408</v>
+      </c>
+      <c r="B56" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="76" t="s">
+        <v>417</v>
+      </c>
+      <c r="D56" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="58">
+        <v>1</v>
+      </c>
+      <c r="G56" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="58"/>
+      <c r="J56" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K56" s="58"/>
+      <c r="L56" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M56" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+      <c r="G57" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H57" s="58"/>
+      <c r="I57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M57" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="76" t="s">
+        <v>517</v>
+      </c>
+      <c r="B58" s="76" t="s">
+        <v>518</v>
+      </c>
+      <c r="C58" s="76" t="s">
+        <v>519</v>
+      </c>
+      <c r="D58" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="58">
+        <v>3</v>
+      </c>
+      <c r="G58" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="K58" s="58"/>
+      <c r="L58" s="75" t="s">
+        <v>578</v>
+      </c>
+      <c r="M58" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="7">
+        <v>1</v>
+      </c>
+      <c r="G59" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H59" s="58"/>
+      <c r="I59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L59" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M59" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="7">
+        <v>2</v>
+      </c>
+      <c r="G60" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H60" s="58"/>
+      <c r="I60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L60" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M60" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="76" t="s">
+        <v>505</v>
+      </c>
+      <c r="B61" s="76" t="s">
+        <v>506</v>
+      </c>
+      <c r="C61" s="76" t="s">
+        <v>507</v>
+      </c>
+      <c r="D61" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="58">
+        <v>8</v>
+      </c>
+      <c r="G61" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K61" s="58"/>
+      <c r="L61" s="75" t="s">
+        <v>585</v>
+      </c>
+      <c r="M61" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>2.5920000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="76" t="s">
+        <v>509</v>
+      </c>
+      <c r="B62" s="76" t="s">
+        <v>510</v>
+      </c>
+      <c r="C62" s="76" t="s">
+        <v>511</v>
+      </c>
+      <c r="D62" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="58">
+        <v>8</v>
+      </c>
+      <c r="G62" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="K62" s="58"/>
+      <c r="L62" s="75" t="s">
+        <v>586</v>
+      </c>
+      <c r="M62" s="72">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="62" t="s">
+        <v>547</v>
+      </c>
+      <c r="B63" s="62" t="s">
+        <v>548</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>549</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="H63" s="58"/>
+      <c r="I63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="62" t="s">
+        <v>548</v>
+      </c>
+      <c r="L63" s="75" t="s">
+        <v>568</v>
+      </c>
+      <c r="M63" s="73">
+        <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="60"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="M64" s="73">
+        <f>SUM(Table22[price total])</f>
+        <v>220.89700000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L66" sqref="L66"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3255,7 +7023,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="70" t="s">
         <v>509</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3294,7 +7062,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="70" t="s">
         <v>505</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3332,24 +7100,24 @@
         <v>2.5920000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>404</v>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>534</v>
@@ -3361,34 +7129,34 @@
         <v>7</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>407</v>
+        <v>7</v>
       </c>
       <c r="K4" s="58">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L4" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>401</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>382</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>402</v>
+        <v>271</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>179</v>
+        <v>383</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>534</v>
@@ -3400,18 +7168,18 @@
         <v>7</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>403</v>
+        <v>93</v>
       </c>
       <c r="K5" s="58">
-        <v>0.09</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="L5" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="70" t="s">
         <v>517</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3449,24 +7217,24 @@
         <v>1.161</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>396</v>
+    <row r="7" spans="1:12" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68" t="s">
+        <v>375</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>397</v>
+        <v>272</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>534</v>
@@ -3478,34 +7246,34 @@
         <v>7</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>398</v>
+        <v>141</v>
       </c>
       <c r="K7" s="58">
-        <v>0.09</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="L7" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>408</v>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
+        <v>375</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>285</v>
+        <v>377</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>534</v>
@@ -3517,18 +7285,18 @@
         <v>7</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="K8" s="58">
-        <v>0.09</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="L8" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
         <v>408</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3565,7 +7333,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="70" t="s">
         <v>513</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3603,24 +7371,24 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>409</v>
+    <row r="11" spans="1:12" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="68" t="s">
+        <v>379</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>534</v>
@@ -3632,18 +7400,18 @@
         <v>7</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="K11" s="58">
-        <v>0.09</v>
+        <v>1.58</v>
       </c>
       <c r="L11" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
         <v>423</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3679,24 +7447,24 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>393</v>
+    <row r="13" spans="1:12" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
+        <v>384</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>394</v>
+        <v>273</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>171</v>
+        <v>361</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>534</v>
@@ -3708,18 +7476,18 @@
         <v>7</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>395</v>
+        <v>144</v>
       </c>
       <c r="K13" s="58">
-        <v>0.09</v>
+        <v>0.153</v>
       </c>
       <c r="L13" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+        <v>0.45899999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
         <v>427</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3755,24 +7523,24 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>410</v>
+    <row r="15" spans="1:12" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
+        <v>386</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>368</v>
+        <v>151</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>534</v>
@@ -3784,18 +7552,18 @@
         <v>7</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="K15" s="58">
-        <v>0.09</v>
+        <v>6.28</v>
       </c>
       <c r="L15" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
         <v>418</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3832,7 +7600,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="70" t="s">
         <v>521</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3870,24 +7638,24 @@
         <v>3.7800000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>390</v>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>278</v>
+        <v>380</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>534</v>
@@ -3899,18 +7667,16 @@
         <v>7</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="K18" s="58">
-        <v>0.09</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K18" s="58"/>
       <c r="L18" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.80999999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
         <v>419</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3946,24 +7712,24 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>391</v>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="68" t="s">
+        <v>153</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>299</v>
+        <v>154</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F20" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>534</v>
@@ -3972,21 +7738,19 @@
         <v>7</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>392</v>
+        <v>7</v>
       </c>
       <c r="J20" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="58">
-        <v>0.27100000000000002</v>
-      </c>
+      <c r="K20" s="58"/>
       <c r="L20" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.81300000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="70" t="s">
         <v>399</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4024,47 +7788,43 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>399</v>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
+        <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>400</v>
+        <v>7</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>365</v>
+        <v>134</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="K22" s="58">
-        <v>0.09</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K22" s="58"/>
       <c r="L22" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
         <v>399</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -4101,7 +7861,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="70" t="s">
         <v>431</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -4139,8 +7899,8 @@
         <v>3.726</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
         <v>431</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4176,8 +7936,8 @@
         <v>2.484</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
         <v>436</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4213,8 +7973,8 @@
         <v>4.968</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
         <v>437</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -4251,7 +8011,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="70" t="s">
         <v>443</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4289,8 +8049,8 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
         <v>443</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4326,24 +8086,24 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>20</v>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="68" t="s">
+        <v>45</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>7</v>
+        <v>388</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>21</v>
+        <v>362</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F30" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>534</v>
@@ -4355,16 +8115,18 @@
         <v>7</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="58"/>
+        <v>389</v>
+      </c>
+      <c r="K30" s="58">
+        <v>0.621</v>
+      </c>
       <c r="L30" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+        <v>4.968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="70" t="s">
         <v>446</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -4401,7 +8163,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="70" t="s">
         <v>529</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -4440,8 +8202,8 @@
         <v>14.628</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="70" t="s">
         <v>452</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4478,7 +8240,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="70" t="s">
         <v>525</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -4516,8 +8278,8 @@
         <v>0.8879999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="70" t="s">
         <v>457</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -4553,8 +8315,8 @@
         <v>1.548</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="70" t="s">
         <v>459</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -4590,24 +8352,24 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>411</v>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="68" t="s">
+        <v>413</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>64</v>
+        <v>370</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>13</v>
+        <v>371</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>11</v>
+        <v>369</v>
       </c>
       <c r="F37" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>534</v>
@@ -4619,18 +8381,18 @@
         <v>7</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>72</v>
+        <v>415</v>
       </c>
       <c r="K37" s="58">
-        <v>16.25</v>
+        <v>5.55</v>
       </c>
       <c r="L37" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="70" t="s">
         <v>465</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4666,8 +8428,8 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="70" t="s">
         <v>471</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -4703,21 +8465,21 @@
         <v>2.673</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>387</v>
+    <row r="40" spans="1:12" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="68" t="s">
+        <v>385</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" s="7">
         <v>3</v>
@@ -4732,18 +8494,18 @@
         <v>7</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="K40" s="58">
-        <v>0.09</v>
+        <v>3.47</v>
       </c>
       <c r="L40" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="70" t="s">
         <v>488</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -4779,8 +8541,8 @@
         <v>10.62</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="70" t="s">
         <v>492</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4816,8 +8578,8 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="70" t="s">
         <v>476</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4853,8 +8615,8 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="70" t="s">
         <v>482</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4891,7 +8653,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="70" t="s">
         <v>412</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4929,8 +8691,8 @@
         <v>4.1999999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="68" t="s">
         <v>412</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -4968,21 +8730,21 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>385</v>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="68" t="s">
+        <v>387</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F47" s="7">
         <v>3</v>
@@ -4997,34 +8759,34 @@
         <v>7</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="K47" s="58">
-        <v>3.47</v>
+        <v>0.09</v>
       </c>
       <c r="L47" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>10.41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>413</v>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="68" t="s">
+        <v>411</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>370</v>
+        <v>64</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>371</v>
+        <v>13</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>369</v>
+        <v>11</v>
       </c>
       <c r="F48" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>534</v>
@@ -5036,18 +8798,18 @@
         <v>7</v>
       </c>
       <c r="J48" s="53" t="s">
-        <v>415</v>
+        <v>72</v>
       </c>
       <c r="K48" s="58">
-        <v>5.55</v>
+        <v>16.25</v>
       </c>
       <c r="L48" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>11.1</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="70" t="s">
         <v>527</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -5085,24 +8847,24 @@
         <v>13.86</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>388</v>
+        <v>7</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>362</v>
+        <v>21</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F50" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>534</v>
@@ -5114,69 +8876,71 @@
         <v>7</v>
       </c>
       <c r="J50" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="K50" s="58">
-        <v>0.621</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K50" s="58"/>
       <c r="L50" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>4.968</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="68" t="s">
+        <v>399</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>7</v>
+        <v>400</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>134</v>
+        <v>365</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F51" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="H51" s="6"/>
+      <c r="H51" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="I51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J51" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="58"/>
+        <v>185</v>
+      </c>
+      <c r="K51" s="58">
+        <v>0.09</v>
+      </c>
       <c r="L51" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
-        <v>153</v>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="68" t="s">
+        <v>391</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>154</v>
+        <v>299</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F52" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>534</v>
@@ -5185,35 +8949,37 @@
         <v>7</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>7</v>
+        <v>392</v>
       </c>
       <c r="J52" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K52" s="58"/>
+      <c r="K52" s="58">
+        <v>0.27100000000000002</v>
+      </c>
       <c r="L52" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
-        <v>22</v>
+        <v>0.81300000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="68" t="s">
+        <v>390</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>380</v>
+        <v>278</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F53" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>534</v>
@@ -5225,16 +8991,18 @@
         <v>7</v>
       </c>
       <c r="J53" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="K53" s="58"/>
+        <v>161</v>
+      </c>
+      <c r="K53" s="58">
+        <v>0.09</v>
+      </c>
       <c r="L53" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>0.80999999999999994</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="70" t="s">
         <v>498</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -5272,8 +9040,8 @@
         <v>0.45899999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="70" t="s">
         <v>495</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -5310,7 +9078,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="70" t="s">
         <v>497</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -5349,7 +9117,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="70" t="s">
         <v>500</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -5387,24 +9155,24 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>386</v>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="68" t="s">
+        <v>410</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>151</v>
+        <v>368</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F58" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>534</v>
@@ -5416,34 +9184,34 @@
         <v>7</v>
       </c>
       <c r="J58" s="53" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="K58" s="58">
-        <v>6.28</v>
+        <v>0.09</v>
       </c>
       <c r="L58" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>25.12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
-        <v>384</v>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="68" t="s">
+        <v>393</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>273</v>
+        <v>394</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>361</v>
+        <v>171</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F59" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>534</v>
@@ -5455,34 +9223,34 @@
         <v>7</v>
       </c>
       <c r="J59" s="53" t="s">
-        <v>144</v>
+        <v>395</v>
       </c>
       <c r="K59" s="58">
-        <v>0.153</v>
+        <v>0.09</v>
       </c>
       <c r="L59" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.45899999999999996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
-        <v>379</v>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="68" t="s">
+        <v>409</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F60" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>534</v>
@@ -5494,31 +9262,31 @@
         <v>7</v>
       </c>
       <c r="J60" s="53" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="K60" s="58">
-        <v>1.58</v>
+        <v>0.09</v>
       </c>
       <c r="L60" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>14.22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
-        <v>375</v>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="68" t="s">
+        <v>408</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F61" s="7">
         <v>2</v>
@@ -5533,34 +9301,34 @@
         <v>7</v>
       </c>
       <c r="J61" s="53" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="K61" s="58">
-        <v>0.16200000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="L61" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
-        <v>375</v>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="68" t="s">
+        <v>396</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F62" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>534</v>
@@ -5572,34 +9340,34 @@
         <v>7</v>
       </c>
       <c r="J62" s="53" t="s">
-        <v>141</v>
+        <v>398</v>
       </c>
       <c r="K62" s="58">
-        <v>0.16200000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="L62" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
-        <v>382</v>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="68" t="s">
+        <v>401</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>271</v>
+        <v>402</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>383</v>
+        <v>179</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F63" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>534</v>
@@ -5611,57 +9379,57 @@
         <v>7</v>
       </c>
       <c r="J63" s="53" t="s">
-        <v>93</v>
+        <v>403</v>
       </c>
       <c r="K63" s="58">
-        <v>9.9000000000000005E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L63" s="58">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0.39600000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="64">
-        <v>1</v>
-      </c>
-      <c r="G64" s="64" t="s">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="B64" s="62" t="s">
+        <v>405</v>
+      </c>
+      <c r="C64" s="62" t="s">
+        <v>406</v>
+      </c>
+      <c r="D64" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="63">
+        <v>2</v>
+      </c>
+      <c r="G64" s="63" t="s">
         <v>534</v>
       </c>
-      <c r="H64" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="J64" s="65" t="s">
-        <v>7</v>
+      <c r="H64" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="64" t="s">
+        <v>407</v>
       </c>
       <c r="K64" s="60">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L64" s="60">
         <f>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="66"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="60"/>
       <c r="C65" s="60"/>
       <c r="D65" s="60"/>
@@ -5670,27 +9438,28 @@
       <c r="G65" s="60"/>
       <c r="H65" s="60"/>
       <c r="I65" s="60"/>
-      <c r="J65" s="67"/>
+      <c r="J65" s="66"/>
       <c r="K65" s="60"/>
-      <c r="L65" s="68">
+      <c r="L65" s="67">
         <f>SUM(Table2[price total])</f>
-        <v>193.86700000000002</v>
+        <v>193.86700000000005</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7718,7 +11487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
@@ -9636,7 +13405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
@@ -11020,7 +14789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
@@ -12393,7 +16162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
@@ -13169,7 +16938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
@@ -15053,7 +18822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
@@ -16354,128 +20123,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-</worksheet>
 </file>
--- a/2. Hardware PCB/REV_3.0/BOM/BOM.xlsx
+++ b/2. Hardware PCB/REV_3.0/BOM/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOM REV3.2 (RUI) (2)" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4062" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="697">
   <si>
     <t>Comment</t>
   </si>
@@ -2487,7 +2487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2777,743 +2777,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="106">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5241,6 +4519,46 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -5271,6 +4589,36 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5303,6 +4651,37 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5355,6 +4734,37 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -5369,6 +4779,36 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5419,7 +4859,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5430,9 +4870,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5483,7 +4921,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5494,9 +4932,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5547,7 +4983,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5558,9 +4994,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5593,6 +5027,222 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5712,6 +5362,365 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5726,19 +5735,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2245" displayName="Table2245" ref="A1:G67" totalsRowCount="1" headerRowDxfId="12" dataDxfId="2" totalsRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2245" displayName="Table2245" ref="A1:G67" totalsRowCount="1" headerRowDxfId="105" dataDxfId="103" totalsRowDxfId="101" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="100">
   <autoFilter ref="A1:G66"/>
   <sortState ref="A2:M90">
     <sortCondition ref="A1:A90"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Comment" dataDxfId="0"/>
-    <tableColumn id="2" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" name="Quantity" dataDxfId="7"/>
-    <tableColumn id="7" name="Supplier" dataDxfId="6"/>
-    <tableColumn id="16" name="Vendor Part No" dataDxfId="5"/>
-    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="4"/>
-    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="1" name="Comment" dataDxfId="99"/>
+    <tableColumn id="2" name="Description" dataDxfId="98"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="97"/>
+    <tableColumn id="7" name="Supplier" dataDxfId="96"/>
+    <tableColumn id="16" name="Vendor Part No" dataDxfId="95"/>
+    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="94"/>
+    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="93">
       <calculatedColumnFormula>Table2245[[#This Row],[price]]*Table2245[[#This Row],[Quantity]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2245[price total])</totalsRowFormula>
     </tableColumn>
@@ -5748,56 +5757,62 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A1:M92" totalsRowCount="1" headerRowDxfId="105" dataDxfId="103" totalsRowDxfId="101" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="100">
-  <autoFilter ref="A1:M91"/>
-  <sortState ref="A2:M90">
-    <sortCondition ref="A1:A90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A1:M92" totalsRowCount="1" headerRowDxfId="92" dataDxfId="90" totalsRowDxfId="88" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="87">
+  <autoFilter ref="A1:M91">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="inversor"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A3:M91">
+    <sortCondition descending="1" ref="A1:A91"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" name="Comment" dataDxfId="99" totalsRowDxfId="25"/>
-    <tableColumn id="2" name="Description" dataDxfId="98" totalsRowDxfId="24"/>
-    <tableColumn id="6" name="Quantity" dataDxfId="97" totalsRowDxfId="23"/>
-    <tableColumn id="7" name="Board" dataDxfId="96" totalsRowDxfId="22"/>
-    <tableColumn id="8" name="RS VPN" dataDxfId="95" totalsRowDxfId="21"/>
-    <tableColumn id="9" name="Farnell VPN" dataDxfId="94" totalsRowDxfId="20"/>
-    <tableColumn id="10" name="Mouser VPN" dataDxfId="93" totalsRowDxfId="19"/>
-    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="92" totalsRowDxfId="18"/>
-    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="91" totalsRowDxfId="17"/>
-    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="16">
+    <tableColumn id="1" name="Comment" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="2" name="Description" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="7" name="Board" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="8" name="RS VPN" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="9" name="Farnell VPN" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="10" name="Mouser VPN" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table224[price total])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="bundle_quantity" dataDxfId="89" totalsRowDxfId="15"/>
-    <tableColumn id="4" name="polisol_price" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="14">
+    <tableColumn id="3" name="bundle_quantity" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="4" name="polisol_price" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table224[polisol_price])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Column1" dataDxfId="26" totalsRowDxfId="13"/>
+    <tableColumn id="5" name="Column1" dataDxfId="62" totalsRowDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:M86" totalsRowCount="1" headerRowDxfId="87" dataDxfId="85" totalsRowDxfId="83" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:M86" totalsRowCount="1" headerRowDxfId="60" dataDxfId="58" totalsRowDxfId="56" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="55">
   <autoFilter ref="A1:M85"/>
-  <sortState ref="A2:M65">
-    <sortCondition ref="G1:G65"/>
+  <sortState ref="A2:M85">
+    <sortCondition ref="A1:A85"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" name="Comment" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="2" name="Description" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="3" name="Designator" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="4" name="Footprint" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="5" name="LibRef" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="6" name="Quantity" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="7" name="Board" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="8" name="RS VPN" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="9" name="Farnell VPN" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="10" name="Mouser VPN" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="1" name="Comment" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="2" name="Description" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="3" name="Designator" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="4" name="Footprint" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="5" name="LibRef" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="7" name="Board" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="8" name="RS VPN" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="9" name="Farnell VPN" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="10" name="Mouser VPN" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table22[price total])</totalsRowFormula>
     </tableColumn>
@@ -5807,7 +5822,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L65" totalsRowCount="1" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L65" totalsRowCount="1" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="A1:L64">
     <filterColumn colId="6">
       <filters>
@@ -5819,18 +5834,18 @@
     <sortCondition ref="A1:A64"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="Comment" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="2" name="Description" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="3" name="Designator" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="4" name="Footprint" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="5" name="LibRef" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="6" name="Quantity" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="7" name="Board" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="8" name="RS VPN" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="9" name="Farnell VPN" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="10" name="Mouser VPN" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="11" name="price" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="1" name="Comment" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" name="Description" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="3" name="Designator" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="4" name="Footprint" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="5" name="LibRef" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="7" name="Board" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="RS VPN" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="9" name="Farnell VPN" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="10" name="Mouser VPN" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="11" name="price" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[price]]*Table2[[#This Row],[Quantity]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[price total])</totalsRowFormula>
     </tableColumn>
@@ -6107,7 +6122,7 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
     </sheetView>
@@ -11047,9 +11062,9 @@
   </sheetPr>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B109" sqref="B109"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11110,7 +11125,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>639</v>
       </c>
@@ -11145,15 +11160,15 @@
       </c>
       <c r="M2" s="93"/>
     </row>
-    <row r="3" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>657</v>
+        <v>547</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>656</v>
+        <v>548</v>
       </c>
       <c r="C3" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>534</v>
@@ -11163,28 +11178,28 @@
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="75">
-        <v>6.31</v>
+        <v>548</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>568</v>
       </c>
       <c r="J3" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>25.24</v>
+        <v>22.9</v>
       </c>
       <c r="K3" s="58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>25.24</v>
+        <v>45.8</v>
       </c>
       <c r="M3" s="93"/>
     </row>
-    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
         <v>640</v>
       </c>
@@ -11219,7 +11234,7 @@
       </c>
       <c r="M4" s="93"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>500</v>
       </c>
@@ -11258,15 +11273,15 @@
       </c>
       <c r="M5" s="93"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>500</v>
+    <row r="6" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>271</v>
+        <v>405</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="58" t="s">
         <v>534</v>
@@ -11276,28 +11291,28 @@
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>93</v>
+        <v>407</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="J6" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.39600000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="K6" s="58">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L6" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>2.97</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M6" s="93"/>
     </row>
-    <row r="7" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="83" t="s">
         <v>497</v>
       </c>
@@ -11336,7 +11351,7 @@
       </c>
       <c r="M7" s="93"/>
     </row>
-    <row r="8" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
         <v>497</v>
       </c>
@@ -11371,15 +11386,15 @@
       </c>
       <c r="M8" s="93"/>
     </row>
-    <row r="9" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>497</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>545</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>272</v>
+        <v>546</v>
       </c>
       <c r="C9" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" s="58" t="s">
         <v>534</v>
@@ -11389,28 +11404,28 @@
         <v>7</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>141</v>
+        <v>403</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="J9" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>1.1340000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="K9" s="58">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L9" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>11.34</v>
+        <v>0</v>
       </c>
       <c r="M9" s="93"/>
     </row>
-    <row r="10" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
         <v>495</v>
       </c>
@@ -11447,15 +11462,15 @@
       </c>
       <c r="M10" s="93"/>
     </row>
-    <row r="11" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>538</v>
+        <v>396</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>270</v>
+        <v>544</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D11" s="58" t="s">
         <v>534</v>
@@ -11465,63 +11480,67 @@
         <v>7</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="75" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="J11" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>14.22</v>
+        <v>0.09</v>
       </c>
       <c r="K11" s="58">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L11" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>47.400000000000006</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M11" s="93"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>659</v>
+      <c r="A12" s="40" t="s">
+        <v>408</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>658</v>
+        <v>285</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="58" t="s">
         <v>534</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G12" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="75">
-        <v>7.98</v>
-      </c>
-      <c r="J12" s="78">
+        <v>188</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="J12" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>31.92</v>
-      </c>
-      <c r="K12" s="7">
-        <v>8</v>
-      </c>
-      <c r="L12" s="90">
+        <v>0.18</v>
+      </c>
+      <c r="K12" s="58">
+        <v>0</v>
+      </c>
+      <c r="L12" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>63.84</v>
+        <v>0</v>
       </c>
       <c r="M12" s="93"/>
     </row>
-    <row r="13" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
         <v>637</v>
       </c>
@@ -11556,15 +11575,15 @@
       </c>
       <c r="M13" s="93"/>
     </row>
-    <row r="14" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>539</v>
+        <v>409</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>540</v>
+        <v>284</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>534</v>
@@ -11574,28 +11593,28 @@
         <v>7</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>551</v>
+        <v>186</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="75" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="J14" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.48</v>
+        <v>1.08</v>
       </c>
       <c r="K14" s="58">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L14" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M14" s="93"/>
     </row>
-    <row r="15" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="83" t="s">
         <v>498</v>
       </c>
@@ -11634,15 +11653,15 @@
       </c>
       <c r="M15" s="93"/>
     </row>
-    <row r="16" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
-        <v>498</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>273</v>
+        <v>394</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>534</v>
@@ -11652,28 +11671,28 @@
         <v>7</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>144</v>
+        <v>395</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="75" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J16" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.45899999999999996</v>
+        <v>0.09</v>
       </c>
       <c r="K16" s="58">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L16" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>3.8249999999999997</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M16" s="93"/>
     </row>
-    <row r="17" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
         <v>638</v>
       </c>
@@ -11708,7 +11727,7 @@
       </c>
       <c r="M17" s="93"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
         <v>589</v>
       </c>
@@ -11743,81 +11762,85 @@
       </c>
       <c r="M18" s="93"/>
     </row>
-    <row r="19" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>654</v>
-      </c>
-      <c r="C19" s="58">
-        <v>10</v>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>534</v>
       </c>
       <c r="E19" s="58"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76" t="s">
-        <v>655</v>
-      </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="79">
-        <v>1.8</v>
+      <c r="F19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="J19" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>18</v>
+        <v>0.09</v>
       </c>
       <c r="K19" s="58">
-        <v>16</v>
-      </c>
-      <c r="L19" s="85">
+        <v>10</v>
+      </c>
+      <c r="L19" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>28.8</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M19" s="93"/>
     </row>
-    <row r="20" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
-        <v>543</v>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>390</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>534</v>
       </c>
       <c r="E20" s="58"/>
       <c r="F20" s="6" t="s">
-        <v>550</v>
+        <v>7</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="75" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J20" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>2.1800000000000002</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="K20" s="58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L20" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M20" s="93"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
         <v>527</v>
       </c>
@@ -11858,46 +11881,48 @@
         <v>674</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>414</v>
+        <v>299</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="58" t="s">
         <v>534</v>
       </c>
       <c r="E22" s="58"/>
       <c r="F22" s="6" t="s">
-        <v>7</v>
+        <v>392</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>415</v>
+        <v>7</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I22" s="75" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="J22" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>11.1</v>
+        <v>0.81300000000000006</v>
       </c>
       <c r="K22" s="58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L22" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>27.75</v>
-      </c>
-      <c r="M22" s="93"/>
-    </row>
-    <row r="23" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M22" s="93" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
         <v>385</v>
       </c>
@@ -11932,15 +11957,15 @@
       </c>
       <c r="M23" s="93"/>
     </row>
-    <row r="24" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>534</v>
@@ -11950,30 +11975,26 @@
         <v>7</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="75" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="J24" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>10.41</v>
-      </c>
-      <c r="K24" s="58">
-        <v>5</v>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="K24" s="58"/>
       <c r="L24" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>17.350000000000001</v>
-      </c>
-      <c r="M24" s="93" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M24" s="93"/>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
         <v>412</v>
       </c>
@@ -12014,13 +12035,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>289</v>
+        <v>432</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>534</v>
@@ -12030,30 +12051,26 @@
         <v>7</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>101</v>
+        <v>389</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I26" s="75" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J26" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>1.4</v>
-      </c>
-      <c r="K26" s="58">
-        <v>4</v>
-      </c>
+        <v>2.484</v>
+      </c>
+      <c r="K26" s="58"/>
       <c r="L26" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>5.6</v>
-      </c>
-      <c r="M26" s="93" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M26" s="93"/>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
         <v>482</v>
       </c>
@@ -12090,7 +12107,7 @@
       </c>
       <c r="M27" s="93"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
         <v>476</v>
       </c>
@@ -12127,7 +12144,7 @@
       </c>
       <c r="M28" s="93"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76" t="s">
         <v>492</v>
       </c>
@@ -12164,7 +12181,7 @@
       </c>
       <c r="M29" s="93"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="76" t="s">
         <v>488</v>
       </c>
@@ -12202,34 +12219,36 @@
       <c r="M30" s="93"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="84" t="s">
-        <v>387</v>
+      <c r="A31" s="40" t="s">
+        <v>443</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>277</v>
+        <v>444</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" s="58" t="s">
         <v>534</v>
       </c>
-      <c r="E31" s="58"/>
+      <c r="E31" s="6" t="s">
+        <v>347</v>
+      </c>
       <c r="F31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I31" s="75" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="J31" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.27</v>
+        <v>1.2</v>
       </c>
       <c r="K31" s="58">
         <v>0</v>
@@ -12238,11 +12257,9 @@
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
         <v>0</v>
       </c>
-      <c r="M31" s="93" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="M31" s="93"/>
+    </row>
+    <row r="32" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="76" t="s">
         <v>471</v>
       </c>
@@ -12279,7 +12296,7 @@
       </c>
       <c r="M32" s="93"/>
     </row>
-    <row r="33" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="76" t="s">
         <v>465</v>
       </c>
@@ -12318,13 +12335,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>288</v>
+        <v>7</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="58" t="s">
         <v>534</v>
@@ -12334,30 +12351,26 @@
         <v>7</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="75" t="s">
-        <v>565</v>
+      <c r="I34" s="75">
+        <v>0</v>
       </c>
       <c r="J34" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>16.25</v>
-      </c>
-      <c r="K34" s="58">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K34" s="58"/>
       <c r="L34" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>65</v>
-      </c>
-      <c r="M34" s="93" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M34" s="93"/>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
         <v>459</v>
       </c>
@@ -12394,7 +12407,7 @@
       </c>
       <c r="M35" s="93"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
         <v>643</v>
       </c>
@@ -12429,7 +12442,7 @@
       </c>
       <c r="M36" s="93"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="76" t="s">
         <v>649</v>
       </c>
@@ -12464,7 +12477,7 @@
       </c>
       <c r="M37" s="93"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="76" t="s">
         <v>457</v>
       </c>
@@ -12501,7 +12514,7 @@
       </c>
       <c r="M38" s="93"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="76" t="s">
         <v>525</v>
       </c>
@@ -12542,7 +12555,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="76" t="s">
         <v>452</v>
       </c>
@@ -12579,7 +12592,7 @@
       </c>
       <c r="M40" s="93"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="76" t="s">
         <v>636</v>
       </c>
@@ -12614,7 +12627,7 @@
       </c>
       <c r="M41" s="93"/>
     </row>
-    <row r="42" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="87" t="s">
         <v>529</v>
       </c>
@@ -12651,7 +12664,7 @@
       </c>
       <c r="M42" s="93"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="76" t="s">
         <v>446</v>
       </c>
@@ -12690,13 +12703,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>7</v>
+        <v>288</v>
       </c>
       <c r="C44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="58" t="s">
         <v>534</v>
@@ -12706,26 +12719,30 @@
         <v>7</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="75">
-        <v>0</v>
+      <c r="I44" s="75" t="s">
+        <v>565</v>
       </c>
       <c r="J44" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="58"/>
+        <v>16.25</v>
+      </c>
+      <c r="K44" s="58">
+        <v>4</v>
+      </c>
       <c r="L44" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="93"/>
-    </row>
-    <row r="45" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="M44" s="93" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>667</v>
       </c>
@@ -12760,7 +12777,7 @@
       </c>
       <c r="M45" s="93"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82" t="s">
         <v>650</v>
       </c>
@@ -12795,7 +12812,7 @@
       </c>
       <c r="M46" s="93"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="87" t="s">
         <v>650</v>
       </c>
@@ -12830,7 +12847,7 @@
       </c>
       <c r="M47" s="93"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="83" t="s">
         <v>443</v>
       </c>
@@ -12869,7 +12886,7 @@
       </c>
       <c r="M48" s="93"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="83" t="s">
         <v>443</v>
       </c>
@@ -12905,36 +12922,34 @@
       <c r="M49" s="93"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
-        <v>443</v>
+      <c r="A50" s="84" t="s">
+        <v>387</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>444</v>
+        <v>277</v>
       </c>
       <c r="C50" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" s="58" t="s">
         <v>534</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>347</v>
-      </c>
+      <c r="E50" s="58"/>
       <c r="F50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I50" s="75" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="J50" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>1.2</v>
+        <v>0.27</v>
       </c>
       <c r="K50" s="58">
         <v>0</v>
@@ -12943,9 +12958,11 @@
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
         <v>0</v>
       </c>
-      <c r="M50" s="93"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="93" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>443</v>
       </c>
@@ -12984,7 +13001,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="76" t="s">
         <v>437</v>
       </c>
@@ -13021,7 +13038,7 @@
       </c>
       <c r="M52" s="93"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>436</v>
       </c>
@@ -13056,13 +13073,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="89" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>432</v>
+        <v>289</v>
       </c>
       <c r="C54" s="63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D54" s="58" t="s">
         <v>534</v>
@@ -13072,26 +13089,30 @@
         <v>7</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>389</v>
+        <v>101</v>
       </c>
       <c r="H54" s="62" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="75" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="J54" s="73">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>2.484</v>
-      </c>
-      <c r="K54" s="58"/>
+        <v>1.4</v>
+      </c>
+      <c r="K54" s="58">
+        <v>4</v>
+      </c>
       <c r="L54" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="93"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.6</v>
+      </c>
+      <c r="M54" s="93" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="83" t="s">
         <v>436</v>
       </c>
@@ -13126,7 +13147,7 @@
       </c>
       <c r="M55" s="93"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="83" t="s">
         <v>431</v>
       </c>
@@ -13163,7 +13184,7 @@
       </c>
       <c r="M56" s="93"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
         <v>688</v>
       </c>
@@ -13202,7 +13223,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>689</v>
       </c>
@@ -13239,7 +13260,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>666</v>
       </c>
@@ -13274,7 +13295,7 @@
       </c>
       <c r="M59" s="93"/>
     </row>
-    <row r="60" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="76" t="s">
         <v>641</v>
       </c>
@@ -13309,7 +13330,7 @@
       </c>
       <c r="M60" s="93"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="76" t="s">
         <v>642</v>
       </c>
@@ -13344,7 +13365,7 @@
       </c>
       <c r="M61" s="93"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="83" t="s">
         <v>399</v>
       </c>
@@ -13381,15 +13402,15 @@
       </c>
       <c r="M62" s="93"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C63" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D63" s="58" t="s">
         <v>534</v>
@@ -13399,26 +13420,30 @@
         <v>7</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I63" s="75" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J63" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
-      </c>
-      <c r="K63" s="58"/>
+        <v>10.41</v>
+      </c>
+      <c r="K63" s="58">
+        <v>5</v>
+      </c>
       <c r="L63" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="93"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="M63" s="93" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="83" t="s">
         <v>399</v>
       </c>
@@ -13455,48 +13480,46 @@
       </c>
       <c r="M64" s="93"/>
     </row>
-    <row r="65" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>299</v>
+        <v>414</v>
       </c>
       <c r="C65" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" s="58" t="s">
         <v>534</v>
       </c>
       <c r="E65" s="58"/>
       <c r="F65" s="6" t="s">
-        <v>392</v>
+        <v>7</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>7</v>
+        <v>415</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I65" s="75" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="J65" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.81300000000000006</v>
+        <v>11.1</v>
       </c>
       <c r="K65" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L65" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="93" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27.75</v>
+      </c>
+      <c r="M65" s="93"/>
+    </row>
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="76" t="s">
         <v>419</v>
       </c>
@@ -13533,7 +13556,7 @@
       </c>
       <c r="M66" s="93"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="76" t="s">
         <v>590</v>
       </c>
@@ -13568,46 +13591,46 @@
       </c>
       <c r="M67" s="93"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>390</v>
+    <row r="68" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="84" t="s">
+        <v>543</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C68" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D68" s="58" t="s">
         <v>534</v>
       </c>
       <c r="E68" s="58"/>
       <c r="F68" s="6" t="s">
-        <v>7</v>
+        <v>550</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I68" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J68" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.80999999999999994</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="K68" s="58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L68" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="M68" s="93"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="76" t="s">
         <v>521</v>
       </c>
@@ -13646,7 +13669,7 @@
       </c>
       <c r="M69" s="93"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="88" t="s">
         <v>410</v>
       </c>
@@ -13683,46 +13706,42 @@
       </c>
       <c r="M70" s="93"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="40" t="s">
-        <v>410</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C71" s="7">
-        <v>1</v>
+    <row r="71" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B71" s="76" t="s">
+        <v>654</v>
+      </c>
+      <c r="C71" s="58">
+        <v>10</v>
       </c>
       <c r="D71" s="58" t="s">
         <v>534</v>
       </c>
       <c r="E71" s="58"/>
-      <c r="F71" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I71" s="75" t="s">
-        <v>562</v>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76" t="s">
+        <v>655</v>
+      </c>
+      <c r="H71" s="76"/>
+      <c r="I71" s="79">
+        <v>1.8</v>
       </c>
       <c r="J71" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
+        <v>18</v>
       </c>
       <c r="K71" s="58">
-        <v>10</v>
-      </c>
-      <c r="L71" s="58">
+        <v>16</v>
+      </c>
+      <c r="L71" s="85">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>0.89999999999999991</v>
+        <v>28.8</v>
       </c>
       <c r="M71" s="93"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="76" t="s">
         <v>427</v>
       </c>
@@ -13759,15 +13778,15 @@
       </c>
       <c r="M72" s="93"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>393</v>
+    <row r="73" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>394</v>
+        <v>273</v>
       </c>
       <c r="C73" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" s="58" t="s">
         <v>534</v>
@@ -13777,28 +13796,28 @@
         <v>7</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>395</v>
+        <v>144</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I73" s="75" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J73" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
+        <v>0.45899999999999996</v>
       </c>
       <c r="K73" s="58">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L73" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>0.89999999999999991</v>
+        <v>3.8249999999999997</v>
       </c>
       <c r="M73" s="93"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="76" t="s">
         <v>646</v>
       </c>
@@ -13833,7 +13852,7 @@
       </c>
       <c r="M74" s="93"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="76" t="s">
         <v>423</v>
       </c>
@@ -13870,15 +13889,15 @@
       </c>
       <c r="M75" s="93"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>284</v>
+        <v>540</v>
       </c>
       <c r="C76" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D76" s="58" t="s">
         <v>534</v>
@@ -13888,28 +13907,28 @@
         <v>7</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>186</v>
+        <v>551</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I76" s="75" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="J76" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>1.08</v>
+        <v>0.48</v>
       </c>
       <c r="K76" s="58">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L76" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M76" s="93"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="83" t="s">
         <v>647</v>
       </c>
@@ -13944,7 +13963,7 @@
       </c>
       <c r="M77" s="93"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="83" t="s">
         <v>513</v>
       </c>
@@ -13984,45 +14003,41 @@
       <c r="M78" s="93"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="40" t="s">
-        <v>408</v>
+      <c r="A79" s="6" t="s">
+        <v>659</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>285</v>
+        <v>658</v>
       </c>
       <c r="C79" s="7">
-        <v>2</v>
-      </c>
-      <c r="D79" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="E79" s="58"/>
-      <c r="F79" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="6"/>
       <c r="G79" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I79" s="75" t="s">
-        <v>562</v>
-      </c>
-      <c r="J79" s="72">
+        <v>660</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="75">
+        <v>7.98</v>
+      </c>
+      <c r="J79" s="78">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.18</v>
-      </c>
-      <c r="K79" s="58">
-        <v>0</v>
-      </c>
-      <c r="L79" s="58">
+        <v>31.92</v>
+      </c>
+      <c r="K79" s="7">
+        <v>8</v>
+      </c>
+      <c r="L79" s="90">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>0</v>
+        <v>63.84</v>
       </c>
       <c r="M79" s="93"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="83" t="s">
         <v>408</v>
       </c>
@@ -14059,15 +14074,15 @@
       </c>
       <c r="M80" s="93"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>396</v>
+        <v>538</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>544</v>
+        <v>270</v>
       </c>
       <c r="C81" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D81" s="58" t="s">
         <v>534</v>
@@ -14077,28 +14092,28 @@
         <v>7</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>398</v>
+        <v>86</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I81" s="75" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="J81" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
+        <v>14.22</v>
       </c>
       <c r="K81" s="58">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L81" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>0.89999999999999991</v>
+        <v>47.400000000000006</v>
       </c>
       <c r="M81" s="93"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="86" t="s">
         <v>517</v>
       </c>
@@ -14137,15 +14152,15 @@
       </c>
       <c r="M82" s="93"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
-        <v>545</v>
+    <row r="83" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>546</v>
+        <v>272</v>
       </c>
       <c r="C83" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D83" s="58" t="s">
         <v>534</v>
@@ -14155,28 +14170,28 @@
         <v>7</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>403</v>
+        <v>141</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I83" s="75" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="J83" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
+        <v>1.1340000000000001</v>
       </c>
       <c r="K83" s="58">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L83" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>0</v>
+        <v>11.34</v>
       </c>
       <c r="M83" s="93"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="76" t="s">
         <v>648</v>
       </c>
@@ -14211,7 +14226,7 @@
       </c>
       <c r="M84" s="93"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="76" t="s">
         <v>644</v>
       </c>
@@ -14246,15 +14261,15 @@
       </c>
       <c r="M85" s="93"/>
     </row>
-    <row r="86" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>404</v>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="26" t="s">
+        <v>500</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>405</v>
+        <v>271</v>
       </c>
       <c r="C86" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" s="58" t="s">
         <v>534</v>
@@ -14264,28 +14279,28 @@
         <v>7</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>407</v>
+        <v>93</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I86" s="75" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="J86" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>0.18</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="K86" s="58">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L86" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>0.89999999999999991</v>
+        <v>2.97</v>
       </c>
       <c r="M86" s="93"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="76" t="s">
         <v>645</v>
       </c>
@@ -14320,7 +14335,7 @@
       </c>
       <c r="M87" s="93"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="76" t="s">
         <v>505</v>
       </c>
@@ -14359,7 +14374,7 @@
       </c>
       <c r="M88" s="93"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="76" t="s">
         <v>509</v>
       </c>
@@ -14398,7 +14413,7 @@
       </c>
       <c r="M89" s="93"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>682</v>
       </c>
@@ -14433,15 +14448,15 @@
       </c>
       <c r="M90" s="93"/>
     </row>
-    <row r="91" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>547</v>
+        <v>657</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>548</v>
+        <v>656</v>
       </c>
       <c r="C91" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" s="58" t="s">
         <v>534</v>
@@ -14451,24 +14466,24 @@
         <v>7</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="I91" s="75" t="s">
-        <v>568</v>
+        <v>7</v>
+      </c>
+      <c r="I91" s="75">
+        <v>6.31</v>
       </c>
       <c r="J91" s="72">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[Quantity]]</f>
-        <v>22.9</v>
+        <v>25.24</v>
       </c>
       <c r="K91" s="58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L91" s="58">
         <f>Table224[[#This Row],[price]]*Table224[[#This Row],[bundle_quantity]]</f>
-        <v>45.8</v>
+        <v>25.24</v>
       </c>
       <c r="M91" s="93"/>
     </row>
@@ -14486,12 +14501,12 @@
       </c>
       <c r="J92" s="91">
         <f>SUM(Table224[price total])</f>
-        <v>455.47999999999973</v>
+        <v>455.48000000000008</v>
       </c>
       <c r="K92" s="92"/>
       <c r="L92" s="81">
         <f>SUM(Table224[polisol_price])</f>
-        <v>894.08799999999997</v>
+        <v>894.08800000000008</v>
       </c>
       <c r="M92" s="81"/>
     </row>
@@ -14502,7 +14517,7 @@
       </c>
       <c r="L96" s="96">
         <f>SUM(L21:L43)</f>
-        <v>351.51299999999998</v>
+        <v>235.81300000000002</v>
       </c>
     </row>
     <row r="97" spans="11:12" x14ac:dyDescent="0.25">
@@ -14511,7 +14526,7 @@
       </c>
       <c r="L97" s="98">
         <f>SUM(L45:L61)</f>
-        <v>152.34500000000003</v>
+        <v>157.94500000000002</v>
       </c>
     </row>
     <row r="98" spans="11:12" x14ac:dyDescent="0.25">
@@ -14520,7 +14535,7 @@
       </c>
       <c r="L98" s="98">
         <f>SUM(L62:L89)</f>
-        <v>82.485000000000014</v>
+        <v>270.66000000000003</v>
       </c>
     </row>
     <row r="99" spans="11:12" x14ac:dyDescent="0.25">
@@ -14529,7 +14544,7 @@
       </c>
       <c r="L99" s="98">
         <f>SUM(L2:L20)</f>
-        <v>207.245</v>
+        <v>84.73</v>
       </c>
     </row>
     <row r="100" spans="11:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14538,7 +14553,7 @@
       </c>
       <c r="L100" s="100">
         <f>Table224[[#Totals],[polisol_price]]-SUM(L96:L99)</f>
-        <v>100.49999999999989</v>
+        <v>144.93999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -14557,9 +14572,9 @@
   </sheetPr>
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O13" sqref="O13"/>
+      <selection pane="topRight" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14621,93 +14636,73 @@
     </row>
     <row r="2" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>500</v>
+        <v>639</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>501</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>22</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="75" t="s">
-        <v>557</v>
+        <v>605</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76" t="s">
+        <v>624</v>
+      </c>
+      <c r="K2" s="76"/>
+      <c r="L2" s="79">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="M2" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.29700000000000004</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
-        <v>497</v>
+        <v>640</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>22</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="58">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="75" t="s">
-        <v>554</v>
+        <v>605</v>
+      </c>
+      <c r="H3" s="58"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76" t="s">
+        <v>625</v>
+      </c>
+      <c r="K3" s="76"/>
+      <c r="L3" s="79">
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M3" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>1.458</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>498</v>
+      <c r="A4" s="82" t="s">
+        <v>500</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>29</v>
@@ -14728,75 +14723,75 @@
         <v>7</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="K4" s="58"/>
       <c r="L4" s="75" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M4" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.45899999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
-        <v>527</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>528</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="58">
-        <v>3</v>
+        <v>0.29700000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="115" t="s">
+        <v>500</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="H5" s="58"/>
       <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="58"/>
+        <v>93</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="L5" s="75" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="M5" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
-        <v>412</v>
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="s">
+        <v>497</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F6" s="58">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>536</v>
@@ -14808,272 +14803,256 @@
         <v>7</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="K6" s="58"/>
       <c r="L6" s="75" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="M6" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>4.1999999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
-        <v>525</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>526</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="58">
-        <v>3</v>
+        <v>1.458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="115" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7">
+        <v>7</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="H7" s="58"/>
       <c r="I7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K7" s="58"/>
+        <v>141</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="L7" s="75" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="M7" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.8879999999999999</v>
+        <v>1.1340000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
-        <v>529</v>
+      <c r="A8" s="116" t="s">
+        <v>497</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>530</v>
+        <v>272</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>308</v>
+        <v>29</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="F8" s="58">
         <v>1</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>7</v>
+        <v>588</v>
+      </c>
+      <c r="H8" s="76"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="76" t="s">
+        <v>141</v>
       </c>
       <c r="K8" s="58"/>
-      <c r="L8" s="75" t="s">
-        <v>584</v>
+      <c r="L8" s="79" t="s">
+        <v>554</v>
       </c>
       <c r="M8" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>14.628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>443</v>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="116" t="s">
+        <v>495</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F9" s="58">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I9" s="58"/>
       <c r="J9" s="6" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="K9" s="58"/>
       <c r="L9" s="75" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="M9" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>432</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>502</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>434</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>435</v>
-      </c>
-      <c r="F10" s="58">
-        <v>6</v>
+        <v>3.7199999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7">
+        <v>9</v>
       </c>
       <c r="G10" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="H10" s="58"/>
       <c r="I10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="K10" s="58"/>
+        <v>86</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="L10" s="75" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="M10" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>3.726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>399</v>
+        <v>637</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="76" t="s">
-        <v>49</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="58">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="75" t="s">
-        <v>562</v>
+        <v>605</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76" t="s">
+        <v>622</v>
+      </c>
+      <c r="K11" s="76"/>
+      <c r="L11" s="79">
+        <v>0.189</v>
       </c>
       <c r="M11" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="54" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
-        <v>521</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>522</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>523</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="58">
-        <v>30</v>
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7">
+        <v>6</v>
       </c>
       <c r="G12" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="H12" s="58"/>
       <c r="I12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="K12" s="58"/>
+        <v>551</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="L12" s="75" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="M12" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>3.7800000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
-        <v>513</v>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="83" t="s">
+        <v>498</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>514</v>
+        <v>273</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F13" s="58">
         <v>3</v>
@@ -15088,152 +15067,138 @@
         <v>7</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>516</v>
+        <v>144</v>
       </c>
       <c r="K13" s="58"/>
       <c r="L13" s="75" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="M13" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.45899999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
-        <v>517</v>
+        <v>638</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>518</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>519</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>49</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="75" t="s">
-        <v>578</v>
+        <v>605</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76" t="s">
+        <v>623</v>
+      </c>
+      <c r="K14" s="76"/>
+      <c r="L14" s="79">
+        <v>0.16700000000000001</v>
       </c>
       <c r="M14" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>1.161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
-        <v>505</v>
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="116" t="s">
+        <v>589</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>507</v>
+        <v>594</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>51</v>
+        <v>599</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F15" s="58">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G15" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>508</v>
+        <v>588</v>
+      </c>
+      <c r="H15" s="76"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="76" t="s">
+        <v>601</v>
       </c>
       <c r="K15" s="58"/>
-      <c r="L15" s="75" t="s">
-        <v>585</v>
+      <c r="L15" s="79" t="s">
+        <v>603</v>
       </c>
       <c r="M15" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>2.5920000000000001</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
-        <v>509</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>510</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>511</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="58">
-        <v>8</v>
+      <c r="A16" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="H16" s="58"/>
       <c r="I16" s="6" t="s">
-        <v>7</v>
+        <v>550</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="K16" s="58"/>
+        <v>7</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="L16" s="75" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="M16" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>1.08</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>500</v>
+        <v>542</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>383</v>
+        <v>151</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7">
         <v>4</v>
@@ -15246,28 +15211,28 @@
         <v>7</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L17" s="75" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="M17" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.39600000000000002</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>497</v>
+      <c r="A18" s="115" t="s">
+        <v>541</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>537</v>
+        <v>361</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>29</v>
@@ -15276,7 +15241,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>534</v>
@@ -15286,77 +15251,77 @@
         <v>7</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="75" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M18" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>1.1340000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="7">
-        <v>9</v>
+        <v>0.45899999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="82" t="s">
+        <v>527</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>528</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="58">
+        <v>3</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H19" s="58"/>
+        <v>536</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="I19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K19" s="58"/>
       <c r="L19" s="75" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="M19" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>14.22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>539</v>
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>413</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>540</v>
+        <v>414</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>29</v>
+        <v>371</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>22</v>
+        <v>369</v>
       </c>
       <c r="F20" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>534</v>
@@ -15366,157 +15331,153 @@
         <v>7</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>551</v>
+        <v>415</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L20" s="75" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="M20" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.48</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>543</v>
+      <c r="A21" s="26" t="s">
+        <v>385</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F21" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>534</v>
       </c>
       <c r="H21" s="58"/>
       <c r="I21" s="6" t="s">
-        <v>550</v>
+        <v>7</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L21" s="75" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M21" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>2.1800000000000002</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="7">
-        <v>4</v>
+      <c r="A22" s="116" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>595</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="58">
+        <v>1</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>534</v>
+        <v>588</v>
       </c>
       <c r="H22" s="58"/>
-      <c r="I22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="75" t="s">
-        <v>560</v>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="76"/>
+      <c r="L22" s="79" t="s">
+        <v>559</v>
       </c>
       <c r="M22" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>25.12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="7">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="82" t="s">
+        <v>412</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="58">
         <v>3</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H23" s="58"/>
+        <v>536</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="I23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="K23" s="58"/>
       <c r="L23" s="75" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="M23" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.45899999999999996</v>
+        <v>4.1999999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>413</v>
+      <c r="A24" s="26" t="s">
+        <v>412</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>414</v>
+        <v>289</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>370</v>
+        <v>67</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>371</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>369</v>
+        <v>63</v>
       </c>
       <c r="F24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>534</v>
@@ -15526,197 +15487,189 @@
         <v>7</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>415</v>
+        <v>101</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L24" s="75" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M24" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="7">
-        <v>3</v>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="116" t="s">
+        <v>482</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>484</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>485</v>
+      </c>
+      <c r="E25" s="76" t="s">
+        <v>486</v>
+      </c>
+      <c r="F25" s="58">
+        <v>1</v>
       </c>
       <c r="G25" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="58"/>
       <c r="J25" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="K25" s="58"/>
       <c r="L25" s="75" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="M25" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>10.41</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="A26" s="116" t="s">
+        <v>476</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>477</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>478</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>479</v>
+      </c>
+      <c r="E26" s="76" t="s">
+        <v>480</v>
+      </c>
+      <c r="F26" s="58">
         <v>1</v>
       </c>
       <c r="G26" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="58"/>
       <c r="J26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="K26" s="58"/>
       <c r="L26" s="75" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="M26" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>1.4</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="7">
-        <v>3</v>
+      <c r="A27" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>493</v>
+      </c>
+      <c r="C27" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>486</v>
+      </c>
+      <c r="E27" s="76" t="s">
+        <v>486</v>
+      </c>
+      <c r="F27" s="58">
+        <v>1</v>
       </c>
       <c r="G27" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="58"/>
       <c r="J27" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="K27" s="58"/>
       <c r="L27" s="75" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="M27" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.27</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1</v>
+      <c r="A28" s="116" t="s">
+        <v>488</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>489</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>490</v>
+      </c>
+      <c r="D28" s="76" t="s">
+        <v>485</v>
+      </c>
+      <c r="E28" s="76" t="s">
+        <v>486</v>
+      </c>
+      <c r="F28" s="58">
+        <v>2</v>
       </c>
       <c r="G28" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="58"/>
       <c r="J28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="K28" s="58"/>
       <c r="L28" s="75" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="M28" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>16.25</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>20</v>
+      <c r="A29" s="26" t="s">
+        <v>387</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F29" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="58" t="s">
         <v>534</v>
@@ -15726,114 +15679,110 @@
         <v>7</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="75">
-        <v>0</v>
+      <c r="L29" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="M29" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="7">
-        <v>5</v>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="116" t="s">
+        <v>471</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>472</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="E30" s="76" t="s">
+        <v>474</v>
+      </c>
+      <c r="F30" s="58">
+        <v>3</v>
       </c>
       <c r="G30" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H30" s="76"/>
-      <c r="I30" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="58"/>
       <c r="J30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="K30" s="58"/>
       <c r="L30" s="75" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="M30" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="7">
-        <v>8</v>
+        <v>2.673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>466</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>467</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>469</v>
+      </c>
+      <c r="F31" s="58">
+        <v>1</v>
       </c>
       <c r="G31" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="58"/>
       <c r="J31" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="K31" s="58"/>
       <c r="L31" s="75" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M31" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>4.968</v>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>399</v>
+      <c r="A32" s="26" t="s">
+        <v>411</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>365</v>
+        <v>64</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
@@ -15846,397 +15795,359 @@
         <v>7</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L32" s="75" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="M32" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="7">
-        <v>3</v>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="116" t="s">
+        <v>459</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>460</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>461</v>
+      </c>
+      <c r="D33" s="76" t="s">
+        <v>462</v>
+      </c>
+      <c r="E33" s="76" t="s">
+        <v>463</v>
+      </c>
+      <c r="F33" s="58">
+        <v>2</v>
       </c>
       <c r="G33" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="6" t="s">
-        <v>392</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="58"/>
       <c r="J33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="K33" s="58"/>
       <c r="L33" s="75" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="M33" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.81300000000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="7">
-        <v>9</v>
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="76" t="s">
+        <v>643</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>613</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="58">
+        <v>1</v>
       </c>
       <c r="G34" s="58" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="H34" s="58"/>
-      <c r="I34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="75" t="s">
-        <v>562</v>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76" t="s">
+        <v>628</v>
+      </c>
+      <c r="K34" s="76"/>
+      <c r="L34" s="79">
+        <v>3.65</v>
       </c>
       <c r="M34" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.80999999999999994</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="7">
-        <v>1</v>
+      <c r="A35" s="76" t="s">
+        <v>649</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>619</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="58">
+        <v>2</v>
       </c>
       <c r="G35" s="58" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="H35" s="58"/>
-      <c r="I35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35" s="75" t="s">
-        <v>562</v>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76" t="s">
+        <v>634</v>
+      </c>
+      <c r="K35" s="76"/>
+      <c r="L35" s="79">
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M35" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="7">
-        <v>1</v>
+      <c r="A36" s="116" t="s">
+        <v>457</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>458</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" s="58">
+        <v>4</v>
       </c>
       <c r="G36" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="58"/>
       <c r="J36" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="K36" s="58"/>
       <c r="L36" s="75" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="M36" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="7">
-        <v>12</v>
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="82" t="s">
+        <v>525</v>
+      </c>
+      <c r="B37" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="D37" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="58">
+        <v>3</v>
       </c>
       <c r="G37" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H37" s="58"/>
+        <v>536</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="I37" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="K37" s="58"/>
       <c r="L37" s="75" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="M37" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>1.08</v>
+        <v>0.8879999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="A38" s="116" t="s">
+        <v>452</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>454</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>455</v>
+      </c>
+      <c r="E38" s="76" t="s">
+        <v>455</v>
+      </c>
+      <c r="F38" s="58">
         <v>2</v>
       </c>
       <c r="G38" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="58"/>
       <c r="J38" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="K38" s="58"/>
       <c r="L38" s="75" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="M38" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.18</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="7">
+      <c r="A39" s="76" t="s">
+        <v>636</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>606</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="58">
         <v>1</v>
       </c>
       <c r="G39" s="58" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="H39" s="58"/>
-      <c r="I39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L39" s="75" t="s">
-        <v>562</v>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76" t="s">
+        <v>621</v>
+      </c>
+      <c r="K39" s="76"/>
+      <c r="L39" s="79">
+        <v>0.38500000000000001</v>
       </c>
       <c r="M39" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="7">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="76" t="s">
+        <v>529</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>531</v>
+      </c>
+      <c r="D40" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" s="58">
         <v>1</v>
       </c>
       <c r="G40" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H40" s="58"/>
+        <v>536</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>327</v>
+      </c>
       <c r="I40" s="6" t="s">
-        <v>7</v>
+        <v>532</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K40" s="58"/>
       <c r="L40" s="75" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="M40" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="7">
-        <v>2</v>
+        <v>14.628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="82" t="s">
+        <v>446</v>
+      </c>
+      <c r="B41" s="76" t="s">
+        <v>447</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>448</v>
+      </c>
+      <c r="D41" s="76" t="s">
+        <v>449</v>
+      </c>
+      <c r="E41" s="76" t="s">
+        <v>450</v>
+      </c>
+      <c r="F41" s="58">
+        <v>4</v>
       </c>
       <c r="G41" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="H41" s="58"/>
-      <c r="I41" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="58"/>
       <c r="J41" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="K41" s="58"/>
       <c r="L41" s="75" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="M41" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
+        <v>2.1960000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>547</v>
+        <v>20</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>548</v>
+        <v>7</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>549</v>
+        <v>135</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F42" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="58" t="s">
         <v>534</v>
@@ -16249,224 +16160,218 @@
         <v>7</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="L42" s="75" t="s">
-        <v>568</v>
+        <v>7</v>
+      </c>
+      <c r="L42" s="75">
+        <v>0</v>
       </c>
       <c r="M42" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="76" t="s">
-        <v>495</v>
+        <v>650</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="C43" s="76" t="s">
-        <v>496</v>
-      </c>
-      <c r="D43" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="76" t="s">
-        <v>22</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
       <c r="F43" s="58">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G43" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="58"/>
-      <c r="J43" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K43" s="58"/>
-      <c r="L43" s="75" t="s">
-        <v>571</v>
+        <v>605</v>
+      </c>
+      <c r="H43" s="58"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76" t="s">
+        <v>635</v>
+      </c>
+      <c r="K43" s="76"/>
+      <c r="L43" s="79">
+        <v>2.5299999999999998</v>
       </c>
       <c r="M43" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>3.7199999999999998</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="76" t="s">
-        <v>482</v>
-      </c>
-      <c r="B44" s="76" t="s">
-        <v>483</v>
-      </c>
-      <c r="C44" s="76" t="s">
-        <v>484</v>
-      </c>
-      <c r="D44" s="76" t="s">
-        <v>485</v>
-      </c>
-      <c r="E44" s="76" t="s">
-        <v>486</v>
-      </c>
-      <c r="F44" s="58">
-        <v>1</v>
+      <c r="A44" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="7">
+        <v>5</v>
       </c>
       <c r="G44" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="58"/>
+        <v>534</v>
+      </c>
+      <c r="H44" s="76"/>
+      <c r="I44" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="J44" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="K44" s="58"/>
+        <v>7</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="L44" s="75" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="M44" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>5.31</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="76" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="B45" s="76" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="C45" s="76" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="D45" s="76" t="s">
-        <v>479</v>
+        <v>19</v>
       </c>
       <c r="E45" s="76" t="s">
-        <v>480</v>
+        <v>17</v>
       </c>
       <c r="F45" s="58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="58" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="58"/>
+        <v>347</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="J45" s="6" t="s">
-        <v>481</v>
+        <v>7</v>
       </c>
       <c r="K45" s="58"/>
       <c r="L45" s="75" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="M45" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>8.26</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="76" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="C46" s="76" t="s">
-        <v>64</v>
+        <v>445</v>
       </c>
       <c r="D46" s="76" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
       <c r="E46" s="76" t="s">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="F46" s="58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="58" t="s">
         <v>535</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>7</v>
+        <v>347</v>
       </c>
       <c r="I46" s="58"/>
       <c r="J46" s="6" t="s">
-        <v>494</v>
+        <v>7</v>
       </c>
       <c r="K46" s="58"/>
       <c r="L46" s="75" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="M46" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>2.4300000000000002</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="76" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="C47" s="76" t="s">
-        <v>490</v>
+        <v>598</v>
       </c>
       <c r="D47" s="76" t="s">
-        <v>485</v>
+        <v>19</v>
       </c>
       <c r="E47" s="76" t="s">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="F47" s="58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="58"/>
-      <c r="J47" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="K47" s="58"/>
-      <c r="L47" s="75" t="s">
-        <v>573</v>
+        <v>588</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="79">
+        <v>0.24</v>
       </c>
       <c r="M47" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>10.62</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="77" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="B48" s="77" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="C48" s="77" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="D48" s="77" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="E48" s="77" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="F48" s="60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" s="58" t="s">
         <v>535</v>
@@ -16476,73 +16381,75 @@
       </c>
       <c r="I48" s="60"/>
       <c r="J48" s="6" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="K48" s="60"/>
       <c r="L48" s="75" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="M48" s="73">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>2.673</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="76" t="s">
-        <v>465</v>
-      </c>
-      <c r="B49" s="76" t="s">
-        <v>466</v>
-      </c>
-      <c r="C49" s="76" t="s">
-        <v>467</v>
-      </c>
-      <c r="D49" s="76" t="s">
-        <v>468</v>
-      </c>
-      <c r="E49" s="76" t="s">
-        <v>469</v>
-      </c>
-      <c r="F49" s="58">
-        <v>1</v>
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="7">
+        <v>8</v>
       </c>
       <c r="G49" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="58"/>
+        <v>534</v>
+      </c>
+      <c r="H49" s="58"/>
+      <c r="I49" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="J49" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="K49" s="58"/>
+        <v>389</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="L49" s="75" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="M49" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.75600000000000001</v>
+        <v>4.968</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="76" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="B50" s="76" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="C50" s="76" t="s">
-        <v>461</v>
+        <v>47</v>
       </c>
       <c r="D50" s="76" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="E50" s="76" t="s">
-        <v>463</v>
+        <v>45</v>
       </c>
       <c r="F50" s="58">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G50" s="58" t="s">
         <v>535</v>
@@ -16552,108 +16459,108 @@
       </c>
       <c r="I50" s="58"/>
       <c r="J50" s="6" t="s">
-        <v>464</v>
+        <v>389</v>
       </c>
       <c r="K50" s="58"/>
       <c r="L50" s="75" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="M50" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>3.64</v>
+        <v>4.968</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="76" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>291</v>
+        <v>432</v>
       </c>
       <c r="C51" s="76" t="s">
-        <v>458</v>
+        <v>596</v>
       </c>
       <c r="D51" s="76" t="s">
-        <v>198</v>
+        <v>362</v>
       </c>
       <c r="E51" s="76" t="s">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="F51" s="58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G51" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="58"/>
-      <c r="J51" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K51" s="58"/>
-      <c r="L51" s="75" t="s">
-        <v>578</v>
+        <v>588</v>
+      </c>
+      <c r="H51" s="58"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="K51" s="76"/>
+      <c r="L51" s="79" t="s">
+        <v>563</v>
       </c>
       <c r="M51" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>1.548</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="76" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="B52" s="76" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C52" s="76" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="D52" s="76" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="E52" s="76" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="F52" s="58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G52" s="58" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="58"/>
+      <c r="I52" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="J52" s="6" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="K52" s="58"/>
       <c r="L52" s="75" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="M52" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>3.18</v>
+        <v>3.726</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="76" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C53" s="76" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="D53" s="76" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="E53" s="76" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="F53" s="58">
         <v>4</v>
@@ -16666,171 +16573,159 @@
       </c>
       <c r="I53" s="58"/>
       <c r="J53" s="6" t="s">
-        <v>451</v>
+        <v>389</v>
       </c>
       <c r="K53" s="58"/>
       <c r="L53" s="75" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="M53" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>2.1960000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A54" s="76" t="s">
-        <v>443</v>
+        <v>641</v>
       </c>
       <c r="B54" s="76" t="s">
-        <v>444</v>
-      </c>
-      <c r="C54" s="76" t="s">
-        <v>445</v>
-      </c>
-      <c r="D54" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="76" t="s">
-        <v>17</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
       <c r="F54" s="58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G54" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I54" s="58"/>
-      <c r="J54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K54" s="58"/>
-      <c r="L54" s="75" t="s">
-        <v>553</v>
+        <v>605</v>
+      </c>
+      <c r="H54" s="58"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76" t="s">
+        <v>626</v>
+      </c>
+      <c r="K54" s="76"/>
+      <c r="L54" s="79">
+        <v>2.16</v>
       </c>
       <c r="M54" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="76" t="s">
-        <v>437</v>
+        <v>642</v>
       </c>
       <c r="B55" s="76" t="s">
-        <v>438</v>
-      </c>
-      <c r="C55" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="D55" s="76" t="s">
-        <v>440</v>
-      </c>
-      <c r="E55" s="76" t="s">
-        <v>441</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
       <c r="F55" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="58"/>
-      <c r="J55" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="K55" s="58"/>
-      <c r="L55" s="75" t="s">
-        <v>581</v>
+        <v>605</v>
+      </c>
+      <c r="H55" s="58"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76" t="s">
+        <v>627</v>
+      </c>
+      <c r="K55" s="76"/>
+      <c r="L55" s="79">
+        <v>0.79500000000000004</v>
       </c>
       <c r="M55" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.40500000000000003</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="76" t="s">
-        <v>436</v>
-      </c>
-      <c r="B56" s="76" t="s">
-        <v>432</v>
-      </c>
-      <c r="C56" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="76" t="s">
-        <v>362</v>
-      </c>
-      <c r="E56" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="58">
-        <v>8</v>
+      <c r="A56" s="115" t="s">
+        <v>399</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1</v>
       </c>
       <c r="G56" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="58"/>
+        <v>534</v>
+      </c>
+      <c r="H56" s="58"/>
+      <c r="I56" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="J56" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="K56" s="58"/>
+        <v>185</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="L56" s="75" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M56" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>4.968</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="76" t="s">
-        <v>431</v>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A57" s="116" t="s">
+        <v>399</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="C57" s="76" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="D57" s="76" t="s">
-        <v>434</v>
+        <v>51</v>
       </c>
       <c r="E57" s="76" t="s">
-        <v>435</v>
+        <v>49</v>
       </c>
       <c r="F57" s="58">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G57" s="58" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="58"/>
+      <c r="I57" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="J57" s="6" t="s">
-        <v>389</v>
+        <v>185</v>
       </c>
       <c r="K57" s="58"/>
       <c r="L57" s="75" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M57" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>2.484</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="76" t="s">
+      <c r="A58" s="116" t="s">
         <v>399</v>
       </c>
       <c r="B58" s="76" t="s">
@@ -16867,53 +16762,55 @@
         <v>0.44999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="76" t="s">
-        <v>419</v>
-      </c>
-      <c r="B59" s="76" t="s">
-        <v>420</v>
-      </c>
-      <c r="C59" s="76" t="s">
-        <v>570</v>
-      </c>
-      <c r="D59" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="76" t="s">
+    <row r="59" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="115" t="s">
+        <v>391</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="58">
-        <v>2</v>
+      <c r="F59" s="7">
+        <v>3</v>
       </c>
       <c r="G59" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="58"/>
+        <v>534</v>
+      </c>
+      <c r="H59" s="58"/>
+      <c r="I59" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="J59" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="K59" s="58"/>
+        <v>7</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="L59" s="75" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M59" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.18</v>
+        <v>0.81300000000000006</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="76" t="s">
-        <v>418</v>
+      <c r="A60" s="116" t="s">
+        <v>419</v>
       </c>
       <c r="B60" s="76" t="s">
-        <v>287</v>
+        <v>420</v>
       </c>
       <c r="C60" s="76" t="s">
-        <v>224</v>
+        <v>570</v>
       </c>
       <c r="D60" s="76" t="s">
         <v>51</v>
@@ -16922,7 +16819,7 @@
         <v>49</v>
       </c>
       <c r="F60" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="58" t="s">
         <v>535</v>
@@ -16932,7 +16829,7 @@
       </c>
       <c r="I60" s="58"/>
       <c r="J60" s="6" t="s">
-        <v>286</v>
+        <v>422</v>
       </c>
       <c r="K60" s="58"/>
       <c r="L60" s="75" t="s">
@@ -16940,94 +16837,94 @@
       </c>
       <c r="M60" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="76" t="s">
-        <v>427</v>
+      <c r="A61" s="116" t="s">
+        <v>590</v>
       </c>
       <c r="B61" s="76" t="s">
-        <v>428</v>
+        <v>592</v>
       </c>
       <c r="C61" s="76" t="s">
-        <v>429</v>
+        <v>597</v>
       </c>
       <c r="D61" s="76" t="s">
-        <v>51</v>
+        <v>600</v>
       </c>
       <c r="E61" s="76" t="s">
         <v>49</v>
       </c>
       <c r="F61" s="58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="58"/>
-      <c r="J61" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="K61" s="58"/>
-      <c r="L61" s="75" t="s">
-        <v>562</v>
+        <v>588</v>
+      </c>
+      <c r="H61" s="58"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="K61" s="76"/>
+      <c r="L61" s="79" t="s">
+        <v>604</v>
       </c>
       <c r="M61" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="76" t="s">
-        <v>423</v>
-      </c>
-      <c r="B62" s="76" t="s">
-        <v>424</v>
-      </c>
-      <c r="C62" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="D62" s="76" t="s">
+        <v>0.94500000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="115" t="s">
+        <v>390</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="76" t="s">
+      <c r="E62" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="58">
-        <v>1</v>
+      <c r="F62" s="7">
+        <v>9</v>
       </c>
       <c r="G62" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="58"/>
+        <v>534</v>
+      </c>
+      <c r="H62" s="58"/>
+      <c r="I62" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="J62" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="K62" s="58"/>
+        <v>161</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="L62" s="75" t="s">
         <v>562</v>
       </c>
       <c r="M62" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="77" t="s">
-        <v>408</v>
+        <v>0.80999999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="54" x14ac:dyDescent="0.25">
+      <c r="A63" s="117" t="s">
+        <v>521</v>
       </c>
       <c r="B63" s="77" t="s">
-        <v>285</v>
+        <v>522</v>
       </c>
       <c r="C63" s="77" t="s">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="D63" s="77" t="s">
         <v>51</v>
@@ -17036,285 +16933,305 @@
         <v>49</v>
       </c>
       <c r="F63" s="60">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G63" s="58" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="58"/>
+      <c r="I63" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="J63" s="6" t="s">
-        <v>188</v>
+        <v>524</v>
       </c>
       <c r="K63" s="60"/>
       <c r="L63" s="75" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="M63" s="73">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="76" t="s">
-        <v>497</v>
+        <v>3.7800000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="116" t="s">
+        <v>418</v>
       </c>
       <c r="B64" s="76" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C64" s="76" t="s">
-        <v>593</v>
+        <v>224</v>
       </c>
       <c r="D64" s="76" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E64" s="76" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F64" s="58">
         <v>1</v>
       </c>
       <c r="G64" s="58" t="s">
-        <v>588</v>
-      </c>
-      <c r="H64" s="76"/>
+        <v>535</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="I64" s="58"/>
-      <c r="J64" s="76" t="s">
-        <v>141</v>
+      <c r="J64" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="K64" s="58"/>
-      <c r="L64" s="79" t="s">
-        <v>554</v>
+      <c r="L64" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="M64" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.16200000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="76" t="s">
-        <v>589</v>
-      </c>
-      <c r="B65" s="76" t="s">
-        <v>591</v>
-      </c>
-      <c r="C65" s="76" t="s">
-        <v>594</v>
-      </c>
-      <c r="D65" s="76" t="s">
-        <v>599</v>
-      </c>
-      <c r="E65" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="58">
+      <c r="A65" s="115" t="s">
+        <v>410</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="7">
         <v>1</v>
       </c>
       <c r="G65" s="58" t="s">
-        <v>588</v>
-      </c>
-      <c r="H65" s="76"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="76" t="s">
-        <v>601</v>
-      </c>
-      <c r="K65" s="58"/>
-      <c r="L65" s="79" t="s">
-        <v>603</v>
+        <v>534</v>
+      </c>
+      <c r="H65" s="58"/>
+      <c r="I65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L65" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="M65" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="76" t="s">
-        <v>385</v>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="116" t="s">
+        <v>427</v>
       </c>
       <c r="B66" s="76" t="s">
-        <v>274</v>
+        <v>428</v>
       </c>
       <c r="C66" s="76" t="s">
-        <v>595</v>
+        <v>429</v>
       </c>
       <c r="D66" s="76" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E66" s="76" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F66" s="58">
         <v>1</v>
       </c>
       <c r="G66" s="58" t="s">
-        <v>588</v>
-      </c>
-      <c r="H66" s="58"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="K66" s="76"/>
-      <c r="L66" s="79" t="s">
-        <v>559</v>
+        <v>535</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="58"/>
+      <c r="J66" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="K66" s="58"/>
+      <c r="L66" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="M66" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>3.47</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="76" t="s">
-        <v>436</v>
-      </c>
-      <c r="B67" s="76" t="s">
-        <v>432</v>
-      </c>
-      <c r="C67" s="76" t="s">
-        <v>596</v>
-      </c>
-      <c r="D67" s="76" t="s">
-        <v>362</v>
-      </c>
-      <c r="E67" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="58">
+      <c r="A67" s="115" t="s">
+        <v>393</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="7">
         <v>1</v>
       </c>
       <c r="G67" s="58" t="s">
-        <v>588</v>
+        <v>534</v>
       </c>
       <c r="H67" s="58"/>
-      <c r="I67" s="76"/>
-      <c r="J67" s="76" t="s">
-        <v>389</v>
-      </c>
-      <c r="K67" s="76"/>
-      <c r="L67" s="79" t="s">
-        <v>563</v>
+      <c r="I67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L67" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="M67" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.621</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="76" t="s">
-        <v>590</v>
+        <v>646</v>
       </c>
       <c r="B68" s="76" t="s">
-        <v>592</v>
-      </c>
-      <c r="C68" s="76" t="s">
-        <v>597</v>
-      </c>
-      <c r="D68" s="76" t="s">
-        <v>600</v>
-      </c>
-      <c r="E68" s="76" t="s">
-        <v>49</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
       <c r="F68" s="58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68" s="58" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="H68" s="58"/>
       <c r="I68" s="76"/>
       <c r="J68" s="76" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="K68" s="76"/>
-      <c r="L68" s="79" t="s">
-        <v>604</v>
+      <c r="L68" s="79">
+        <v>1.6E-2</v>
       </c>
       <c r="M68" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.94500000000000006</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="76" t="s">
-        <v>443</v>
+      <c r="A69" s="116" t="s">
+        <v>423</v>
       </c>
       <c r="B69" s="76" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C69" s="76" t="s">
-        <v>598</v>
+        <v>225</v>
       </c>
       <c r="D69" s="76" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E69" s="76" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F69" s="58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G69" s="58" t="s">
-        <v>588</v>
-      </c>
-      <c r="H69" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="79">
-        <v>0.24</v>
+        <v>535</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="58"/>
+      <c r="J69" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="K69" s="58"/>
+      <c r="L69" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="M69" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="76" t="s">
-        <v>636</v>
-      </c>
-      <c r="B70" s="76" t="s">
-        <v>606</v>
-      </c>
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="58">
-        <v>1</v>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="115" t="s">
+        <v>409</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" s="7">
+        <v>12</v>
       </c>
       <c r="G70" s="58" t="s">
-        <v>605</v>
+        <v>534</v>
       </c>
       <c r="H70" s="58"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="76" t="s">
-        <v>621</v>
-      </c>
-      <c r="K70" s="76"/>
-      <c r="L70" s="79">
-        <v>0.38500000000000001</v>
+      <c r="I70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L70" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="M70" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.38500000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="76" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="C71" s="76"/>
       <c r="D71" s="76"/>
       <c r="E71" s="76"/>
       <c r="F71" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" s="58" t="s">
         <v>605</v>
@@ -17322,203 +17239,261 @@
       <c r="H71" s="58"/>
       <c r="I71" s="76"/>
       <c r="J71" s="76" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="K71" s="76"/>
       <c r="L71" s="79">
-        <v>0.189</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="M71" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="76" t="s">
-        <v>638</v>
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="116" t="s">
+        <v>513</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>608</v>
-      </c>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
+        <v>514</v>
+      </c>
+      <c r="C72" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="D72" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="76" t="s">
+        <v>49</v>
+      </c>
       <c r="F72" s="58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" s="58" t="s">
-        <v>605</v>
-      </c>
-      <c r="H72" s="58"/>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76" t="s">
-        <v>623</v>
-      </c>
-      <c r="K72" s="76"/>
-      <c r="L72" s="79">
-        <v>0.16700000000000001</v>
+        <v>536</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="K72" s="58"/>
+      <c r="L72" s="75" t="s">
+        <v>587</v>
       </c>
       <c r="M72" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="76" t="s">
-        <v>639</v>
-      </c>
-      <c r="B73" s="76" t="s">
-        <v>609</v>
-      </c>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="58">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="115" t="s">
+        <v>408</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="7">
         <v>2</v>
       </c>
       <c r="G73" s="58" t="s">
-        <v>605</v>
+        <v>534</v>
       </c>
       <c r="H73" s="58"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="76" t="s">
-        <v>624</v>
-      </c>
-      <c r="K73" s="76"/>
-      <c r="L73" s="79">
-        <v>2.1000000000000001E-2</v>
+      <c r="I73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L73" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="M73" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="76" t="s">
-        <v>640</v>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="116" t="s">
+        <v>408</v>
       </c>
       <c r="B74" s="76" t="s">
-        <v>610</v>
-      </c>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
+        <v>285</v>
+      </c>
+      <c r="C74" s="76" t="s">
+        <v>417</v>
+      </c>
+      <c r="D74" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="76" t="s">
+        <v>49</v>
+      </c>
       <c r="F74" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" s="58" t="s">
-        <v>605</v>
-      </c>
-      <c r="H74" s="58"/>
-      <c r="I74" s="76"/>
-      <c r="J74" s="76" t="s">
-        <v>625</v>
-      </c>
-      <c r="K74" s="76"/>
-      <c r="L74" s="79">
-        <v>7.1999999999999995E-2</v>
+        <v>535</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="58"/>
+      <c r="J74" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K74" s="58"/>
+      <c r="L74" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="M74" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.14399999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="76" t="s">
-        <v>641</v>
-      </c>
-      <c r="B75" s="76" t="s">
-        <v>611</v>
-      </c>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="58">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="115" t="s">
+        <v>396</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="7">
         <v>1</v>
       </c>
       <c r="G75" s="58" t="s">
-        <v>605</v>
+        <v>534</v>
       </c>
       <c r="H75" s="58"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="76" t="s">
-        <v>626</v>
-      </c>
-      <c r="K75" s="76"/>
-      <c r="L75" s="79">
-        <v>2.16</v>
+      <c r="I75" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L75" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="M75" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>2.16</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="76" t="s">
-        <v>642</v>
+      <c r="A76" s="116" t="s">
+        <v>517</v>
       </c>
       <c r="B76" s="76" t="s">
-        <v>612</v>
-      </c>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
+        <v>518</v>
+      </c>
+      <c r="C76" s="76" t="s">
+        <v>519</v>
+      </c>
+      <c r="D76" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="76" t="s">
+        <v>49</v>
+      </c>
       <c r="F76" s="58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" s="58" t="s">
-        <v>605</v>
-      </c>
-      <c r="H76" s="58"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76" t="s">
-        <v>627</v>
-      </c>
-      <c r="K76" s="76"/>
-      <c r="L76" s="79">
-        <v>0.79500000000000004</v>
+        <v>536</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="K76" s="58"/>
+      <c r="L76" s="75" t="s">
+        <v>578</v>
       </c>
       <c r="M76" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>1.59</v>
+        <v>1.161</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="76" t="s">
-        <v>643</v>
-      </c>
-      <c r="B77" s="76" t="s">
-        <v>613</v>
-      </c>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="58">
+      <c r="A77" s="115" t="s">
+        <v>545</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77" s="7">
         <v>1</v>
       </c>
       <c r="G77" s="58" t="s">
-        <v>605</v>
+        <v>534</v>
       </c>
       <c r="H77" s="58"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76" t="s">
-        <v>628</v>
-      </c>
-      <c r="K77" s="76"/>
-      <c r="L77" s="79">
-        <v>3.65</v>
+      <c r="I77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L77" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="M77" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>3.65</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="76" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B78" s="76" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C78" s="76"/>
       <c r="D78" s="76"/>
@@ -17532,23 +17507,23 @@
       <c r="H78" s="58"/>
       <c r="I78" s="76"/>
       <c r="J78" s="76" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K78" s="76"/>
       <c r="L78" s="79">
-        <v>8.2000000000000003E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="M78" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>8.2000000000000003E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="76" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B79" s="76" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C79" s="76"/>
       <c r="D79" s="76"/>
@@ -17562,59 +17537,69 @@
       <c r="H79" s="58"/>
       <c r="I79" s="76"/>
       <c r="J79" s="76" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K79" s="76"/>
       <c r="L79" s="79">
-        <v>0.111</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="M79" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="76" t="s">
-        <v>646</v>
-      </c>
-      <c r="B80" s="76" t="s">
-        <v>616</v>
-      </c>
-      <c r="C80" s="76"/>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="58">
-        <v>1</v>
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="115" t="s">
+        <v>404</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F80" s="7">
+        <v>2</v>
       </c>
       <c r="G80" s="58" t="s">
-        <v>605</v>
+        <v>534</v>
       </c>
       <c r="H80" s="58"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="76" t="s">
-        <v>631</v>
-      </c>
-      <c r="K80" s="76"/>
-      <c r="L80" s="79">
-        <v>1.6E-2</v>
+      <c r="I80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L80" s="75" t="s">
+        <v>562</v>
       </c>
       <c r="M80" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>1.6E-2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="76" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B81" s="76" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C81" s="76"/>
       <c r="D81" s="76"/>
       <c r="E81" s="76"/>
       <c r="F81" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" s="58" t="s">
         <v>605</v>
@@ -17622,105 +17607,135 @@
       <c r="H81" s="58"/>
       <c r="I81" s="76"/>
       <c r="J81" s="76" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K81" s="76"/>
       <c r="L81" s="79">
-        <v>0.36099999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="M81" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.72199999999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="76" t="s">
-        <v>648</v>
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="116" t="s">
+        <v>505</v>
       </c>
       <c r="B82" s="76" t="s">
-        <v>618</v>
-      </c>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
+        <v>506</v>
+      </c>
+      <c r="C82" s="76" t="s">
+        <v>507</v>
+      </c>
+      <c r="D82" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" s="76" t="s">
+        <v>49</v>
+      </c>
       <c r="F82" s="58">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G82" s="58" t="s">
-        <v>605</v>
-      </c>
-      <c r="H82" s="58"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="76" t="s">
-        <v>633</v>
-      </c>
-      <c r="K82" s="76"/>
-      <c r="L82" s="79">
-        <v>5.1999999999999998E-2</v>
+        <v>536</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K82" s="58"/>
+      <c r="L82" s="75" t="s">
+        <v>585</v>
       </c>
       <c r="M82" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="76" t="s">
-        <v>649</v>
+        <v>2.5920000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="116" t="s">
+        <v>509</v>
       </c>
       <c r="B83" s="76" t="s">
-        <v>619</v>
-      </c>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
+        <v>510</v>
+      </c>
+      <c r="C83" s="76" t="s">
+        <v>511</v>
+      </c>
+      <c r="D83" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" s="76" t="s">
+        <v>49</v>
+      </c>
       <c r="F83" s="58">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G83" s="58" t="s">
-        <v>605</v>
-      </c>
-      <c r="H83" s="58"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="76" t="s">
-        <v>634</v>
-      </c>
-      <c r="K83" s="76"/>
-      <c r="L83" s="79">
-        <v>8.1000000000000003E-2</v>
+        <v>536</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="K83" s="58"/>
+      <c r="L83" s="75" t="s">
+        <v>586</v>
       </c>
       <c r="M83" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="76" t="s">
-        <v>650</v>
-      </c>
-      <c r="B84" s="76" t="s">
-        <v>620</v>
-      </c>
-      <c r="C84" s="76"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="58">
-        <v>2</v>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="7">
+        <v>1</v>
       </c>
       <c r="G84" s="58" t="s">
-        <v>605</v>
+        <v>534</v>
       </c>
       <c r="H84" s="58"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="76" t="s">
-        <v>635</v>
-      </c>
-      <c r="K84" s="76"/>
-      <c r="L84" s="79">
-        <v>2.5299999999999998</v>
+      <c r="I84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="L84" s="75" t="s">
+        <v>568</v>
       </c>
       <c r="M84" s="72">
         <f>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</f>
-        <v>5.0599999999999996</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
